--- a/roosterjs 8.xlsx
+++ b/roosterjs 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5475E30B-7492-46C3-88A2-C72E4F23040D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0DDF7-7B7C-45FB-9BB3-856FEDA956AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" activeTab="1" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="429">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -504,10 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EditorCore.allowKeyboardEventPropagation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EditorCore.corePlugins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -848,10 +844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PluginWithViewState&lt;T&gt;.state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Editor.getContent.triggerContentChangedEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1474,14 +1466,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOMEventHandlerObject.eventType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOMEventHandlerObject.handler</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PluginEVentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1622,7 +1606,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LifecyclePluginState.initialContent</t>
+    <t>LifecyclePluginState.customData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record&lt;string, CustomData&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifecyclePluginState.defaultFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMEventHandlerObject.pluginEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMEventHandlerObject.beforeDispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditorOptions.allowKeyboardEventPropagation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditorCore.currentUndoSnapshot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1630,43 +1642,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LifecyclePluginState.customData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Record&lt;string, CustomData&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifecyclePluginState.style</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSSStyleDeclaration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifecyclePluginState.calculatedFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifecyclePluginState.startPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NodePosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifecyclePluginState.defaultFormat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DefaultFormat</t>
+    <t>use core.undo.value.outerUndoSnapshot instead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type.member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttachDomEvent.pluginEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttachDomEvent.eventName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttachDomEvent.beforeDispatch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PluginEventType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use AttachDomEvent.eventMap instead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttachDomEvent.eventMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Record&lt;string, DOMEventHandler&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PluginWithViewState&lt;T&gt;.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AutoCompletePlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditPlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOMEventPlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LifecyclePlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DarkModePlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class.member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UndoPlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UndoPluginState.outerUndoSnapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2031,10 +2087,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071A7B6-AAB2-483B-89D6-B81D0338F88A}">
-  <dimension ref="A1:F114"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2166,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2177,7 +2233,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -2194,7 +2250,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2211,7 +2267,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -2228,7 +2284,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2267,13 +2323,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" t="s">
         <v>357</v>
-      </c>
-      <c r="C15" t="s">
-        <v>358</v>
-      </c>
-      <c r="D15" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2281,13 +2337,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>358</v>
+      </c>
+      <c r="C16" t="s">
+        <v>359</v>
+      </c>
+      <c r="D16" t="s">
         <v>360</v>
-      </c>
-      <c r="C16" t="s">
-        <v>361</v>
-      </c>
-      <c r="D16" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -2295,10 +2351,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C17" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,13 +2362,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C18" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -2320,13 +2376,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C19" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
       <c r="D19" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -2334,10 +2390,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C20" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -2488,10 +2544,13 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -2502,13 +2561,13 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2519,13 +2578,10 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="D33" t="s">
-        <v>149</v>
-      </c>
-      <c r="F33" t="s">
-        <v>150</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2536,10 +2592,10 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
       <c r="D34" t="s">
-        <v>385</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2550,10 +2606,10 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2561,13 +2617,16 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D36" t="s">
-        <v>156</v>
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2575,16 +2634,13 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,13 +2648,13 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="C38" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2606,13 +2662,13 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C39" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2620,13 +2676,13 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D40" t="s">
-        <v>163</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2634,13 +2690,13 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,13 +2704,13 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C42" t="s">
         <v>175</v>
       </c>
       <c r="D42" t="s">
-        <v>161</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2662,13 +2718,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C43" t="s">
         <v>176</v>
       </c>
       <c r="D43" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2676,13 +2732,13 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>177</v>
+        <v>416</v>
       </c>
       <c r="D44" t="s">
-        <v>49</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2693,10 +2749,10 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" t="s">
         <v>183</v>
-      </c>
-      <c r="D45" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2704,10 +2760,13 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>202</v>
+        <v>405</v>
+      </c>
+      <c r="D46" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2715,13 +2774,10 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D47" t="s">
-        <v>59</v>
+        <v>201</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2729,16 +2785,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>210</v>
+        <v>418</v>
       </c>
       <c r="D48" t="s">
-        <v>163</v>
-      </c>
-      <c r="E48" t="s">
-        <v>164</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2746,13 +2799,16 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D49" t="s">
-        <v>111</v>
+        <v>162</v>
+      </c>
+      <c r="E49" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,13 +2816,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C50" t="s">
-        <v>386</v>
+        <v>215</v>
       </c>
       <c r="D50" t="s">
-        <v>387</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2774,13 +2830,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C51" t="s">
-        <v>228</v>
-      </c>
-      <c r="F51" t="s">
-        <v>229</v>
+        <v>382</v>
+      </c>
+      <c r="D51" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2788,10 +2844,13 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C52" t="s">
-        <v>252</v>
+        <v>226</v>
+      </c>
+      <c r="F52" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2799,13 +2858,13 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C53" t="s">
-        <v>254</v>
+        <v>419</v>
       </c>
       <c r="D53" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2813,13 +2872,13 @@
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>421</v>
       </c>
       <c r="D54" t="s">
-        <v>256</v>
+        <v>420</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2827,13 +2886,10 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D55" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2841,13 +2897,13 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C56" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D56" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2855,13 +2911,13 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
-        <v>398</v>
+        <v>253</v>
       </c>
       <c r="D57" t="s">
-        <v>380</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2869,13 +2925,13 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="C58" t="s">
-        <v>399</v>
+        <v>255</v>
       </c>
       <c r="D58" t="s">
-        <v>400</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2886,7 +2942,10 @@
         <v>251</v>
       </c>
       <c r="C59" t="s">
-        <v>261</v>
+        <v>256</v>
+      </c>
+      <c r="D59" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2894,13 +2953,13 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>262</v>
+        <v>394</v>
       </c>
       <c r="D60" t="s">
-        <v>244</v>
+        <v>376</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2908,13 +2967,13 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>263</v>
+        <v>395</v>
       </c>
       <c r="D61" t="s">
-        <v>246</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2922,10 +2981,13 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C62" t="s">
-        <v>264</v>
+        <v>422</v>
+      </c>
+      <c r="D62" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2933,13 +2995,10 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C63" t="s">
-        <v>269</v>
-      </c>
-      <c r="D63" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -2947,13 +3006,13 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C64" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="D64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2961,10 +3020,10 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C65" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s">
         <v>244</v>
@@ -2975,13 +3034,10 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>267</v>
-      </c>
-      <c r="D66" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2989,13 +3045,13 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C67" t="s">
+        <v>267</v>
+      </c>
+      <c r="D67" t="s">
         <v>268</v>
-      </c>
-      <c r="D67" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3003,10 +3059,13 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>385</v>
+        <v>263</v>
+      </c>
+      <c r="D68" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3014,10 +3073,13 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>363</v>
+        <v>251</v>
       </c>
       <c r="C69" t="s">
-        <v>402</v>
+        <v>264</v>
+      </c>
+      <c r="D69" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3025,13 +3087,13 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>403</v>
+        <v>265</v>
       </c>
       <c r="D70" t="s">
-        <v>404</v>
+        <v>244</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3039,13 +3101,13 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>365</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>405</v>
+        <v>266</v>
       </c>
       <c r="D71" t="s">
-        <v>406</v>
+        <v>244</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3053,13 +3115,13 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>365</v>
+        <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="D72" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3067,13 +3129,13 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="C73" t="s">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="D73" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3081,13 +3143,10 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>365</v>
+        <v>397</v>
       </c>
       <c r="C74" t="s">
-        <v>411</v>
-      </c>
-      <c r="D74" t="s">
-        <v>412</v>
+        <v>381</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3095,66 +3154,66 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>365</v>
+        <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="D75" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>361</v>
       </c>
       <c r="C76" t="s">
-        <v>280</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>246</v>
+        <v>363</v>
       </c>
       <c r="C77" t="s">
-        <v>281</v>
+        <v>399</v>
       </c>
       <c r="D77" t="s">
-        <v>282</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>363</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>401</v>
       </c>
       <c r="D78" t="s">
-        <v>284</v>
+        <v>402</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>424</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3162,10 +3221,10 @@
         <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3173,13 +3232,13 @@
         <v>104</v>
       </c>
       <c r="B81" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D81" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3187,10 +3246,13 @@
         <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>291</v>
+        <v>281</v>
+      </c>
+      <c r="D82" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3198,13 +3260,13 @@
         <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>253</v>
+        <v>70</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="D83" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3212,13 +3274,10 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="C84" t="s">
-        <v>293</v>
-      </c>
-      <c r="D84" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3226,10 +3285,13 @@
         <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C85" t="s">
-        <v>296</v>
+        <v>287</v>
+      </c>
+      <c r="D85" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3237,13 +3299,10 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C86" t="s">
-        <v>297</v>
-      </c>
-      <c r="D86" t="s">
-        <v>244</v>
+        <v>289</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3251,13 +3310,13 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C87" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="D87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3265,13 +3324,13 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C88" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="D88" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3279,13 +3338,10 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>300</v>
-      </c>
-      <c r="D89" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3293,13 +3349,13 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D90" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3307,13 +3363,13 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="D91" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3324,7 +3380,10 @@
         <v>251</v>
       </c>
       <c r="C92" t="s">
-        <v>303</v>
+        <v>297</v>
+      </c>
+      <c r="D92" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3332,13 +3391,13 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="D93" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3349,7 +3408,10 @@
         <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>299</v>
+      </c>
+      <c r="D94" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3357,13 +3419,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="D95" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3371,13 +3433,10 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C96" t="s">
-        <v>307</v>
-      </c>
-      <c r="D96" t="s">
-        <v>244</v>
+        <v>301</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3388,7 +3447,10 @@
         <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>308</v>
+        <v>302</v>
+      </c>
+      <c r="D97" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3396,13 +3458,10 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C98" t="s">
-        <v>309</v>
-      </c>
-      <c r="D98" t="s">
-        <v>244</v>
+        <v>303</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3410,13 +3469,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C99" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D99" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3427,7 +3486,10 @@
         <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>311</v>
+        <v>305</v>
+      </c>
+      <c r="D100" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3435,13 +3497,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>312</v>
-      </c>
-      <c r="D101" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3452,7 +3511,10 @@
         <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>313</v>
+        <v>307</v>
+      </c>
+      <c r="D102" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3460,13 +3522,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C103" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="D103" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3474,10 +3536,10 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C104" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3485,13 +3547,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="D105" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3499,13 +3561,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>317</v>
-      </c>
-      <c r="D106" t="s">
-        <v>244</v>
+        <v>311</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3513,13 +3572,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C107" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D107" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3527,13 +3586,10 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>319</v>
-      </c>
-      <c r="D108" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3544,7 +3600,10 @@
         <v>251</v>
       </c>
       <c r="C109" t="s">
-        <v>320</v>
+        <v>314</v>
+      </c>
+      <c r="D109" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3552,13 +3611,13 @@
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C110" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D110" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,13 +3625,13 @@
         <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D111" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3580,13 +3639,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="D112" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3594,13 +3653,10 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>324</v>
-      </c>
-      <c r="D113" t="s">
-        <v>244</v>
+        <v>318</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3608,13 +3664,69 @@
         <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="D114" t="s">
-        <v>244</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>104</v>
+      </c>
+      <c r="B115" t="s">
+        <v>251</v>
+      </c>
+      <c r="C115" t="s">
+        <v>320</v>
+      </c>
+      <c r="D115" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>321</v>
+      </c>
+      <c r="D116" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>104</v>
+      </c>
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" t="s">
+        <v>322</v>
+      </c>
+      <c r="D117" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>104</v>
+      </c>
+      <c r="B118" t="s">
+        <v>251</v>
+      </c>
+      <c r="C118" t="s">
+        <v>323</v>
+      </c>
+      <c r="D118" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
@@ -3626,10 +3738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE16B634-B0AC-4AD5-8573-08B94DE84278}">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4165,13 +4277,13 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
+        <v>117</v>
+      </c>
+      <c r="D35" t="s">
         <v>118</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
         <v>119</v>
-      </c>
-      <c r="F35" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4182,13 +4294,13 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" t="s">
         <v>121</v>
       </c>
-      <c r="D36" t="s">
+      <c r="F36" t="s">
         <v>122</v>
-      </c>
-      <c r="F36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4199,13 +4311,13 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
         <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -4216,13 +4328,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D38" t="s">
         <v>47</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4233,13 +4345,13 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D39" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F39" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4250,13 +4362,13 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4267,13 +4379,13 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D41" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F41" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4284,13 +4396,13 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D42" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="F42" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4301,13 +4413,13 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>134</v>
+        <v>406</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>407</v>
       </c>
       <c r="F43" t="s">
-        <v>136</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4318,13 +4430,13 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D44" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4335,10 +4447,13 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>382</v>
+        <v>152</v>
       </c>
       <c r="D45" t="s">
-        <v>383</v>
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -4346,16 +4461,13 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>168</v>
+        <v>378</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
-      </c>
-      <c r="F46" t="s">
-        <v>154</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4363,13 +4475,16 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D47" t="s">
-        <v>161</v>
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4377,13 +4492,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C48" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4391,13 +4506,13 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C49" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>174</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4405,13 +4520,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C50" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D50" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4419,13 +4534,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C51" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" t="s">
         <v>173</v>
-      </c>
-      <c r="D51" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4433,13 +4548,13 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D52" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4450,7 +4565,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D53" t="s">
         <v>111</v>
@@ -4464,13 +4579,10 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="D54" t="s">
-        <v>193</v>
-      </c>
-      <c r="F54" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -4478,13 +4590,16 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>191</v>
+      </c>
+      <c r="D55" t="s">
+        <v>192</v>
       </c>
       <c r="F55" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4492,13 +4607,13 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>196</v>
-      </c>
-      <c r="D56" t="s">
-        <v>51</v>
+        <v>129</v>
+      </c>
+      <c r="F56" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4509,7 +4624,7 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
@@ -4523,7 +4638,7 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
@@ -4537,7 +4652,7 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -4551,7 +4666,7 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
         <v>51</v>
@@ -4565,7 +4680,7 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
@@ -4576,16 +4691,13 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D62" t="s">
-        <v>111</v>
-      </c>
-      <c r="F62" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,16 +4705,16 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
         <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4610,13 +4722,13 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C64" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D64" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F64" t="s">
         <v>207</v>
@@ -4630,13 +4742,13 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -4644,13 +4756,16 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D66" t="s">
-        <v>221</v>
+        <v>96</v>
+      </c>
+      <c r="F66" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4658,13 +4773,13 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" t="s">
         <v>219</v>
-      </c>
-      <c r="C67" t="s">
-        <v>222</v>
-      </c>
-      <c r="D67" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4672,16 +4787,13 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
-      </c>
-      <c r="F68" t="s">
-        <v>224</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -4689,13 +4801,16 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>219</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="D69" t="s">
-        <v>51</v>
+        <v>96</v>
+      </c>
+      <c r="F69" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -4703,13 +4818,13 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D70" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -4717,16 +4832,13 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>28</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D71" t="s">
-        <v>47</v>
-      </c>
-      <c r="F71" t="s">
-        <v>123</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -4737,13 +4849,13 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>388</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>389</v>
+        <v>47</v>
       </c>
       <c r="F72" t="s">
-        <v>390</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -4754,10 +4866,13 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="D73" t="s">
-        <v>359</v>
+        <v>385</v>
+      </c>
+      <c r="F73" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -4768,10 +4883,10 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D74" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4782,13 +4897,10 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D75" t="s">
-        <v>394</v>
-      </c>
-      <c r="F75" t="s">
-        <v>395</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -4796,13 +4908,16 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>233</v>
+        <v>389</v>
       </c>
       <c r="D76" t="s">
-        <v>51</v>
+        <v>390</v>
+      </c>
+      <c r="F76" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -4810,10 +4925,10 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D77" t="s">
         <v>51</v>
@@ -4824,10 +4939,10 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D78" t="s">
         <v>51</v>
@@ -4838,33 +4953,30 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C79" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D79" t="s">
         <v>51</v>
       </c>
-      <c r="F79" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D80" t="s">
         <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -4872,16 +4984,16 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D81" t="s">
         <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -4889,27 +5001,30 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D82" t="s">
         <v>51</v>
       </c>
+      <c r="F82" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4917,13 +5032,13 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C84" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D84" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -4931,13 +5046,13 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C85" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D85" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -4945,10 +5060,10 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C86" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D86" t="s">
         <v>51</v>
@@ -4959,66 +5074,78 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>357</v>
+        <v>230</v>
       </c>
       <c r="C87" t="s">
-        <v>370</v>
-      </c>
-      <c r="F87" t="s">
-        <v>371</v>
+        <v>248</v>
+      </c>
+      <c r="D87" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="C88" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="F88" t="s">
-        <v>279</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>326</v>
+        <v>409</v>
       </c>
       <c r="C89" t="s">
-        <v>328</v>
+        <v>411</v>
+      </c>
+      <c r="D89" t="s">
+        <v>407</v>
+      </c>
+      <c r="F89" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="C90" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="D90" t="s">
-        <v>331</v>
+        <v>413</v>
+      </c>
+      <c r="F90" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>409</v>
       </c>
       <c r="C91" t="s">
-        <v>332</v>
+        <v>412</v>
       </c>
       <c r="D91" t="s">
-        <v>333</v>
+        <v>414</v>
+      </c>
+      <c r="F91" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5026,16 +5153,13 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>334</v>
-      </c>
-      <c r="D92" t="s">
-        <v>234</v>
+        <v>325</v>
       </c>
       <c r="F92" t="s">
-        <v>341</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5043,13 +5167,10 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C93" t="s">
-        <v>337</v>
-      </c>
-      <c r="D93" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5057,16 +5178,13 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C94" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="D94" t="s">
-        <v>234</v>
-      </c>
-      <c r="F94" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5074,13 +5192,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C95" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D95" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5088,16 +5206,16 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C96" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F96" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5105,13 +5223,13 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C97" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D97" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5119,16 +5237,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="C98" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D98" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="F98" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5136,13 +5254,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="C99" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D99" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5150,13 +5268,16 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>70</v>
+        <v>324</v>
       </c>
       <c r="C100" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D100" t="s">
-        <v>351</v>
+        <v>232</v>
+      </c>
+      <c r="F100" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5164,13 +5285,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>327</v>
       </c>
       <c r="C101" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="D101" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5178,16 +5299,16 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C102" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>343</v>
       </c>
       <c r="F102" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5198,10 +5319,10 @@
         <v>70</v>
       </c>
       <c r="C103" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="D103" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5212,10 +5333,69 @@
         <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
-        <v>356</v>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C105" t="s">
+        <v>347</v>
+      </c>
+      <c r="D105" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>244</v>
+      </c>
+      <c r="C106" t="s">
+        <v>350</v>
+      </c>
+      <c r="D106" t="s">
+        <v>65</v>
+      </c>
+      <c r="F106" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>104</v>
+      </c>
+      <c r="B107" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" t="s">
+        <v>352</v>
+      </c>
+      <c r="D107" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>104</v>
+      </c>
+      <c r="B108" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" t="s">
+        <v>353</v>
+      </c>
+      <c r="D108" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -5366,13 +5546,13 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" t="s">
         <v>128</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>129</v>
-      </c>
-      <c r="H7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -5383,16 +5563,16 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" t="s">
         <v>137</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>138</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>139</v>
-      </c>
-      <c r="H8" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -5403,16 +5583,16 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" t="s">
         <v>141</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>142</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>143</v>
-      </c>
-      <c r="H9" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -5423,13 +5603,13 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
         <v>145</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>146</v>
-      </c>
-      <c r="G10" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -5440,16 +5620,16 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s">
         <v>178</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>179</v>
       </c>
-      <c r="G11" t="s">
-        <v>180</v>
-      </c>
       <c r="H11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -5460,13 +5640,13 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" t="s">
         <v>185</v>
       </c>
-      <c r="D12" t="s">
-        <v>186</v>
-      </c>
       <c r="G12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -5477,16 +5657,16 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D13" t="s">
+        <v>186</v>
+      </c>
+      <c r="G13" t="s">
         <v>187</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>188</v>
-      </c>
-      <c r="H13" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5494,16 +5674,16 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D14" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="H14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -5511,16 +5691,16 @@
         <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D15" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5528,13 +5708,13 @@
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -5542,10 +5722,10 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -5556,27 +5736,27 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D19" t="s">
         <v>271</v>
-      </c>
-      <c r="B19" t="s">
-        <v>246</v>
-      </c>
-      <c r="C19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" t="s">
-        <v>273</v>
       </c>
       <c r="F19" t="s">
         <v>104</v>
@@ -5584,36 +5764,36 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D20" t="s">
         <v>274</v>
       </c>
-      <c r="C20" t="s">
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
         <v>275</v>
-      </c>
-      <c r="D20" t="s">
-        <v>276</v>
-      </c>
-      <c r="F20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B21" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G21" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/roosterjs 8.xlsx
+++ b/roosterjs 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B0DDF7-7B7C-45FB-9BB3-856FEDA956AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFE8BB-6EC1-40E9-85BB-138D37A63F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="437">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1723,6 +1723,38 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funciton.param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function.param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readFile.file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>readFile.callback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>File</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2087,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071A7B6-AAB2-483B-89D6-B81D0338F88A}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2346,7 +2378,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2357,7 +2389,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2371,7 +2403,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2385,7 +2417,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2428,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2410,7 +2442,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2424,7 +2456,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2438,7 +2470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2452,7 +2484,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2466,7 +2498,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2480,7 +2512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2494,7 +2526,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2508,52 +2540,49 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>429</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>432</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>430</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>433</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
+        <v>431</v>
       </c>
       <c r="C31" t="s">
-        <v>130</v>
+        <v>434</v>
       </c>
       <c r="D31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2561,13 +2590,10 @@
         <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -2578,10 +2604,10 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>380</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>381</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,10 +2618,13 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D34" t="s">
-        <v>151</v>
+        <v>131</v>
+      </c>
+      <c r="F34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2606,10 +2635,13 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D35" t="s">
-        <v>155</v>
+        <v>148</v>
+      </c>
+      <c r="F35" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2617,16 +2649,13 @@
         <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>380</v>
       </c>
       <c r="D36" t="s">
-        <v>49</v>
-      </c>
-      <c r="F36" t="s">
-        <v>157</v>
+        <v>381</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2634,13 +2663,13 @@
         <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" t="s">
         <v>151</v>
-      </c>
-      <c r="D37" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,13 +2677,13 @@
         <v>109</v>
       </c>
       <c r="B38" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2662,13 +2691,16 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D39" t="s">
-        <v>162</v>
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2679,10 +2711,10 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2693,7 +2725,7 @@
         <v>158</v>
       </c>
       <c r="C41" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="D41" t="s">
         <v>160</v>
@@ -2707,10 +2739,10 @@
         <v>158</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="D42" t="s">
-        <v>27</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2718,13 +2750,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2735,10 +2767,10 @@
         <v>158</v>
       </c>
       <c r="C44" t="s">
-        <v>416</v>
+        <v>174</v>
       </c>
       <c r="D44" t="s">
-        <v>417</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2746,13 +2778,13 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D45" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2760,10 +2792,10 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>158</v>
       </c>
       <c r="C46" t="s">
-        <v>405</v>
+        <v>176</v>
       </c>
       <c r="D46" t="s">
         <v>49</v>
@@ -2774,10 +2806,13 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>158</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>416</v>
+      </c>
+      <c r="D47" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2788,10 +2823,10 @@
         <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>418</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>51</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2799,16 +2834,13 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>208</v>
+        <v>405</v>
       </c>
       <c r="D49" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" t="s">
-        <v>163</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2816,13 +2848,10 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" t="s">
-        <v>111</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2830,13 +2859,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>382</v>
+        <v>418</v>
       </c>
       <c r="D51" t="s">
-        <v>383</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2844,13 +2873,16 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C52" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" t="s">
-        <v>227</v>
+        <v>208</v>
+      </c>
+      <c r="D52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2858,13 +2890,13 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C53" t="s">
-        <v>419</v>
+        <v>215</v>
       </c>
       <c r="D53" t="s">
-        <v>420</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2872,13 +2904,13 @@
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="C54" t="s">
-        <v>421</v>
+        <v>382</v>
       </c>
       <c r="D54" t="s">
-        <v>420</v>
+        <v>383</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2886,10 +2918,13 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C55" t="s">
-        <v>250</v>
+        <v>226</v>
+      </c>
+      <c r="F55" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2897,13 +2932,13 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C56" t="s">
-        <v>252</v>
+        <v>419</v>
       </c>
       <c r="D56" t="s">
-        <v>242</v>
+        <v>420</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2911,13 +2946,13 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C57" t="s">
-        <v>253</v>
+        <v>421</v>
       </c>
       <c r="D57" t="s">
-        <v>254</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2925,13 +2960,10 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C58" t="s">
-        <v>255</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2942,10 +2974,10 @@
         <v>251</v>
       </c>
       <c r="C59" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D59" t="s">
-        <v>65</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2953,13 +2985,13 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="C60" t="s">
-        <v>394</v>
+        <v>253</v>
       </c>
       <c r="D60" t="s">
-        <v>376</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2967,13 +2999,13 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="C61" t="s">
-        <v>395</v>
+        <v>255</v>
       </c>
       <c r="D61" t="s">
-        <v>396</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -2981,13 +3013,13 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="C62" t="s">
-        <v>422</v>
+        <v>256</v>
       </c>
       <c r="D62" t="s">
-        <v>420</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -2995,10 +3027,13 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>259</v>
+        <v>394</v>
+      </c>
+      <c r="D63" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3006,13 +3041,13 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>260</v>
+        <v>395</v>
       </c>
       <c r="D64" t="s">
-        <v>242</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3020,13 +3055,13 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C65" t="s">
-        <v>261</v>
+        <v>422</v>
       </c>
       <c r="D65" t="s">
-        <v>244</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,7 +3072,7 @@
         <v>249</v>
       </c>
       <c r="C66" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3048,10 +3083,10 @@
         <v>251</v>
       </c>
       <c r="C67" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3062,10 +3097,10 @@
         <v>251</v>
       </c>
       <c r="C68" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D68" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3073,13 +3108,10 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C69" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3090,10 +3122,10 @@
         <v>251</v>
       </c>
       <c r="C70" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3104,10 +3136,10 @@
         <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D71" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3115,13 +3147,13 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="C72" t="s">
-        <v>427</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
-        <v>428</v>
+        <v>242</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3129,13 +3161,13 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>425</v>
+        <v>251</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>265</v>
       </c>
       <c r="D73" t="s">
-        <v>420</v>
+        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3143,10 +3175,13 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="C74" t="s">
-        <v>381</v>
+        <v>266</v>
+      </c>
+      <c r="D74" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3154,13 +3189,13 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D75" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3168,10 +3203,13 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>361</v>
+        <v>425</v>
       </c>
       <c r="C76" t="s">
-        <v>398</v>
+        <v>426</v>
+      </c>
+      <c r="D76" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3179,13 +3217,10 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="C77" t="s">
-        <v>399</v>
-      </c>
-      <c r="D77" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3193,13 +3228,13 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>363</v>
+        <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="D78" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3207,52 +3242,52 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>361</v>
       </c>
       <c r="C79" t="s">
-        <v>424</v>
-      </c>
-      <c r="D79" t="s">
-        <v>420</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>363</v>
       </c>
       <c r="C80" t="s">
-        <v>278</v>
+        <v>399</v>
+      </c>
+      <c r="D80" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="C81" t="s">
-        <v>279</v>
+        <v>401</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>281</v>
+        <v>424</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>420</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3260,13 +3295,10 @@
         <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>70</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>283</v>
-      </c>
-      <c r="D83" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3274,10 +3306,13 @@
         <v>104</v>
       </c>
       <c r="B84" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="C84" t="s">
-        <v>286</v>
+        <v>279</v>
+      </c>
+      <c r="D84" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,13 +3320,13 @@
         <v>104</v>
       </c>
       <c r="B85" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="C85" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3299,10 +3334,13 @@
         <v>104</v>
       </c>
       <c r="B86" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="C86" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="D86" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,13 +3348,10 @@
         <v>104</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>290</v>
-      </c>
-      <c r="D87" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3324,13 +3359,13 @@
         <v>104</v>
       </c>
       <c r="B88" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,7 +3376,7 @@
         <v>249</v>
       </c>
       <c r="C89" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,7 +3387,7 @@
         <v>251</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D90" t="s">
         <v>242</v>
@@ -3366,7 +3401,7 @@
         <v>251</v>
       </c>
       <c r="C91" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D91" t="s">
         <v>242</v>
@@ -3377,13 +3412,10 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C92" t="s">
-        <v>297</v>
-      </c>
-      <c r="D92" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3394,7 +3426,7 @@
         <v>251</v>
       </c>
       <c r="C93" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D93" t="s">
         <v>242</v>
@@ -3408,7 +3440,7 @@
         <v>251</v>
       </c>
       <c r="C94" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D94" t="s">
         <v>242</v>
@@ -3422,7 +3454,7 @@
         <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D95" t="s">
         <v>242</v>
@@ -3433,10 +3465,13 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C96" t="s">
-        <v>301</v>
+        <v>298</v>
+      </c>
+      <c r="D96" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3447,7 +3482,7 @@
         <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D97" t="s">
         <v>242</v>
@@ -3458,10 +3493,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>300</v>
+      </c>
+      <c r="D98" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3469,13 +3507,10 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
-      </c>
-      <c r="D99" t="s">
-        <v>242</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3486,7 +3521,7 @@
         <v>251</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D100" t="s">
         <v>242</v>
@@ -3500,7 +3535,7 @@
         <v>249</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3511,7 +3546,7 @@
         <v>251</v>
       </c>
       <c r="C102" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D102" t="s">
         <v>242</v>
@@ -3525,7 +3560,7 @@
         <v>251</v>
       </c>
       <c r="C103" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D103" t="s">
         <v>242</v>
@@ -3539,7 +3574,7 @@
         <v>249</v>
       </c>
       <c r="C104" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3550,7 +3585,7 @@
         <v>251</v>
       </c>
       <c r="C105" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D105" t="s">
         <v>242</v>
@@ -3561,10 +3596,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C106" t="s">
-        <v>311</v>
+        <v>308</v>
+      </c>
+      <c r="D106" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3572,13 +3610,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C107" t="s">
-        <v>312</v>
-      </c>
-      <c r="D107" t="s">
-        <v>242</v>
+        <v>309</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3586,10 +3621,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C108" t="s">
-        <v>313</v>
+        <v>310</v>
+      </c>
+      <c r="D108" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3597,13 +3635,10 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>314</v>
-      </c>
-      <c r="D109" t="s">
-        <v>242</v>
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3614,7 +3649,7 @@
         <v>251</v>
       </c>
       <c r="C110" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D110" t="s">
         <v>242</v>
@@ -3625,13 +3660,10 @@
         <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>316</v>
-      </c>
-      <c r="D111" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3642,7 +3674,7 @@
         <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D112" t="s">
         <v>242</v>
@@ -3653,10 +3685,13 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+      <c r="D113" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3667,7 +3702,7 @@
         <v>251</v>
       </c>
       <c r="C114" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D114" t="s">
         <v>242</v>
@@ -3681,7 +3716,7 @@
         <v>251</v>
       </c>
       <c r="C115" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D115" t="s">
         <v>242</v>
@@ -3692,13 +3727,10 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C116" t="s">
-        <v>321</v>
-      </c>
-      <c r="D116" t="s">
-        <v>242</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3709,7 +3741,7 @@
         <v>251</v>
       </c>
       <c r="C117" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D117" t="s">
         <v>242</v>
@@ -3723,9 +3755,51 @@
         <v>251</v>
       </c>
       <c r="C118" t="s">
+        <v>320</v>
+      </c>
+      <c r="D118" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
+        <v>251</v>
+      </c>
+      <c r="C119" t="s">
+        <v>321</v>
+      </c>
+      <c r="D119" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>104</v>
+      </c>
+      <c r="B120" t="s">
+        <v>251</v>
+      </c>
+      <c r="C120" t="s">
+        <v>322</v>
+      </c>
+      <c r="D120" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>104</v>
+      </c>
+      <c r="B121" t="s">
+        <v>251</v>
+      </c>
+      <c r="C121" t="s">
         <v>323</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D121" t="s">
         <v>242</v>
       </c>
     </row>

--- a/roosterjs 8.xlsx
+++ b/roosterjs 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADFE8BB-6EC1-40E9-85BB-138D37A63F8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C4F46-A898-4539-B0CA-884A96C4F501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="447">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>replace Editor.performAutoComplete API</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type.param</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1048,18 +1044,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOMEventPluginState.pendableFormatState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PendableFormatState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DOMEventPluginState.pendableFormatPosition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DOMEventPluginState.scrollContainer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1755,6 +1743,58 @@
   </si>
   <si>
     <t>File</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PendingFormatStatePluginState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PendingFormatStatePluginState.pendableFormatState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PendingFormatStatePluginState.pendableFormatPosition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorePlugins.pendingFormatState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CorePlugins.mouseUp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MouseUpPlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PendingFormatStatePlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Splitted from DOMEventPlugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Replace Editor.performAutoComplete API</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class.member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PendingFormatStatePlugin.getState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2119,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071A7B6-AAB2-483B-89D6-B81D0338F88A}">
-  <dimension ref="A1:F121"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2254,7 +2294,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2265,7 +2305,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -2282,7 +2322,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2299,7 +2339,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -2316,7 +2356,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2355,13 +2395,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2369,13 +2409,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D16" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C17" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2394,13 +2434,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2408,13 +2448,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C19" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D19" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2422,10 +2462,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C20" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2545,13 +2585,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" t="s">
         <v>429</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>432</v>
-      </c>
-      <c r="D29" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2559,13 +2599,13 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
+        <v>427</v>
+      </c>
+      <c r="C30" t="s">
         <v>430</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>433</v>
-      </c>
-      <c r="D30" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2573,13 +2613,13 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C31" t="s">
         <v>431</v>
       </c>
-      <c r="C31" t="s">
-        <v>434</v>
-      </c>
       <c r="D31" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2652,10 +2692,10 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D36" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2666,10 +2706,13 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>150</v>
+        <v>438</v>
       </c>
       <c r="D37" t="s">
-        <v>151</v>
+        <v>441</v>
+      </c>
+      <c r="F37" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2680,10 +2723,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>154</v>
+        <v>439</v>
       </c>
       <c r="D38" t="s">
-        <v>155</v>
+        <v>440</v>
+      </c>
+      <c r="F38" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2691,16 +2737,13 @@
         <v>109</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F39" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2708,13 +2751,13 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D40" t="s">
-        <v>27</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2722,13 +2765,16 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D41" t="s">
-        <v>160</v>
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2736,13 +2782,13 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C42" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D42" t="s">
-        <v>162</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2750,13 +2796,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2764,13 +2810,13 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C44" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2778,13 +2824,13 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="D45" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2792,13 +2838,13 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D46" t="s">
-        <v>49</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2806,13 +2852,13 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C47" t="s">
-        <v>416</v>
+        <v>174</v>
       </c>
       <c r="D47" t="s">
-        <v>417</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -2820,13 +2866,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D48" t="s">
-        <v>183</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2834,13 +2880,13 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -2848,10 +2894,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -2862,10 +2911,10 @@
         <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="D51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2873,16 +2922,10 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
-      </c>
-      <c r="D52" t="s">
-        <v>162</v>
-      </c>
-      <c r="E52" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -2890,13 +2933,13 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>215</v>
+        <v>415</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -2904,13 +2947,16 @@
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>382</v>
+        <v>207</v>
       </c>
       <c r="D54" t="s">
-        <v>383</v>
+        <v>161</v>
+      </c>
+      <c r="E54" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -2918,13 +2964,13 @@
         <v>109</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C55" t="s">
-        <v>226</v>
-      </c>
-      <c r="F55" t="s">
-        <v>227</v>
+        <v>214</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -2932,13 +2978,13 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="C56" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="D56" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -2946,13 +2992,13 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>421</v>
-      </c>
-      <c r="D57" t="s">
-        <v>420</v>
+        <v>225</v>
+      </c>
+      <c r="F57" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -2960,10 +3006,13 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C58" t="s">
-        <v>250</v>
+        <v>416</v>
+      </c>
+      <c r="D58" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -2971,13 +3020,13 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="C59" t="s">
-        <v>252</v>
+        <v>418</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -2985,13 +3034,10 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>253</v>
-      </c>
-      <c r="D60" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -2999,13 +3045,13 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
+        <v>250</v>
+      </c>
+      <c r="C61" t="s">
         <v>251</v>
       </c>
-      <c r="C61" t="s">
-        <v>255</v>
-      </c>
       <c r="D61" t="s">
-        <v>22</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3013,10 +3059,10 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C62" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D62" t="s">
         <v>65</v>
@@ -3030,10 +3076,10 @@
         <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D63" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3044,10 +3090,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D64" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3055,13 +3101,13 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C65" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D65" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3069,10 +3115,10 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>249</v>
+        <v>434</v>
       </c>
       <c r="C66" t="s">
-        <v>259</v>
+        <v>435</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3080,13 +3126,13 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C67" t="s">
-        <v>260</v>
+        <v>436</v>
       </c>
       <c r="D67" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3094,13 +3140,13 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>437</v>
       </c>
       <c r="D68" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3108,10 +3154,10 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C69" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3119,13 +3165,13 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3133,13 +3179,13 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C71" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="D71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3147,13 +3193,10 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
-        <v>264</v>
-      </c>
-      <c r="D72" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3161,13 +3204,13 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" t="s">
         <v>265</v>
-      </c>
-      <c r="D73" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3175,13 +3218,13 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D74" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3189,13 +3232,13 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>250</v>
       </c>
       <c r="C75" t="s">
-        <v>427</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>428</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3203,13 +3246,13 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>262</v>
       </c>
       <c r="D76" t="s">
-        <v>420</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3217,10 +3260,13 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>397</v>
+        <v>250</v>
       </c>
       <c r="C77" t="s">
-        <v>381</v>
+        <v>263</v>
+      </c>
+      <c r="D77" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3228,13 +3274,13 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D78" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3242,10 +3288,13 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>422</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
+        <v>423</v>
+      </c>
+      <c r="D79" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3253,13 +3302,10 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="C80" t="s">
-        <v>399</v>
-      </c>
-      <c r="D80" t="s">
-        <v>400</v>
+        <v>440</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3267,13 +3313,10 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="C81" t="s">
-        <v>401</v>
-      </c>
-      <c r="D81" t="s">
-        <v>402</v>
+        <v>441</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,91 +3324,91 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>445</v>
       </c>
       <c r="C82" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D82" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>249</v>
+        <v>394</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>378</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>417</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>70</v>
+        <v>358</v>
       </c>
       <c r="C85" t="s">
-        <v>281</v>
-      </c>
-      <c r="D85" t="s">
-        <v>282</v>
+        <v>395</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>70</v>
+        <v>360</v>
       </c>
       <c r="C86" t="s">
-        <v>283</v>
+        <v>396</v>
       </c>
       <c r="D86" t="s">
-        <v>284</v>
+        <v>397</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>285</v>
+        <v>360</v>
       </c>
       <c r="C87" t="s">
-        <v>286</v>
+        <v>398</v>
+      </c>
+      <c r="D87" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C88" t="s">
-        <v>287</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>288</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3373,10 +3416,10 @@
         <v>104</v>
       </c>
       <c r="B89" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C89" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3384,13 +3427,13 @@
         <v>104</v>
       </c>
       <c r="B90" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D90" t="s">
-        <v>242</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3398,13 +3441,13 @@
         <v>104</v>
       </c>
       <c r="B91" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="C91" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D91" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3412,10 +3455,13 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>280</v>
+      </c>
+      <c r="D92" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3423,13 +3469,10 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
-        <v>295</v>
-      </c>
-      <c r="D93" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3437,13 +3480,13 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="D94" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3451,13 +3494,10 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C95" t="s">
-        <v>297</v>
-      </c>
-      <c r="D95" t="s">
-        <v>242</v>
+        <v>286</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3465,13 +3505,13 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3479,13 +3519,13 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C97" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="D97" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3493,13 +3533,10 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C98" t="s">
-        <v>300</v>
-      </c>
-      <c r="D98" t="s">
-        <v>242</v>
+        <v>291</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3507,10 +3544,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C99" t="s">
-        <v>301</v>
+        <v>292</v>
+      </c>
+      <c r="D99" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3518,13 +3558,13 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C100" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3532,10 +3572,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="D101" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3543,13 +3586,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D102" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3557,13 +3600,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D103" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3571,10 +3614,13 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>306</v>
+        <v>297</v>
+      </c>
+      <c r="D104" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3582,13 +3628,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>307</v>
-      </c>
-      <c r="D105" t="s">
-        <v>242</v>
+        <v>298</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3596,13 +3639,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D106" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3610,10 +3653,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C107" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3621,13 +3664,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C108" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="D108" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3635,10 +3678,13 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C109" t="s">
-        <v>311</v>
+        <v>302</v>
+      </c>
+      <c r="D109" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3646,13 +3692,10 @@
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>312</v>
-      </c>
-      <c r="D110" t="s">
-        <v>242</v>
+        <v>303</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3660,10 +3703,13 @@
         <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>304</v>
+      </c>
+      <c r="D111" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3671,13 +3717,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="D112" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3685,13 +3731,10 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C113" t="s">
-        <v>315</v>
-      </c>
-      <c r="D113" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3699,13 +3742,13 @@
         <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D114" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3713,13 +3756,10 @@
         <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C115" t="s">
-        <v>317</v>
-      </c>
-      <c r="D115" t="s">
-        <v>242</v>
+        <v>308</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3727,10 +3767,13 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>318</v>
+        <v>309</v>
+      </c>
+      <c r="D116" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3738,13 +3781,10 @@
         <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C117" t="s">
-        <v>319</v>
-      </c>
-      <c r="D117" t="s">
-        <v>242</v>
+        <v>310</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3752,13 +3792,13 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C118" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="D118" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3766,13 +3806,13 @@
         <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C119" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D119" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3780,13 +3820,13 @@
         <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C120" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D120" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3794,13 +3834,94 @@
         <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="D121" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>104</v>
+      </c>
+      <c r="B122" t="s">
+        <v>248</v>
+      </c>
+      <c r="C122" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>104</v>
+      </c>
+      <c r="B123" t="s">
+        <v>250</v>
+      </c>
+      <c r="C123" t="s">
+        <v>316</v>
+      </c>
+      <c r="D123" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>104</v>
+      </c>
+      <c r="B124" t="s">
+        <v>250</v>
+      </c>
+      <c r="C124" t="s">
+        <v>317</v>
+      </c>
+      <c r="D124" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>104</v>
+      </c>
+      <c r="B125" t="s">
+        <v>250</v>
+      </c>
+      <c r="C125" t="s">
+        <v>318</v>
+      </c>
+      <c r="D125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>104</v>
+      </c>
+      <c r="B126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C126" t="s">
+        <v>319</v>
+      </c>
+      <c r="D126" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>104</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+      <c r="C127" t="s">
+        <v>320</v>
+      </c>
+      <c r="D127" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4419,13 +4540,13 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D39" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F39" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4436,13 +4557,13 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4453,13 +4574,13 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F41" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4470,13 +4591,13 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F42" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4487,13 +4608,13 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D43" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F43" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4538,10 +4659,10 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D46" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4552,7 +4673,7 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -4566,13 +4687,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4580,10 +4701,10 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
@@ -4594,13 +4715,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4608,13 +4729,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4622,13 +4743,13 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C52" t="s">
+        <v>171</v>
+      </c>
+      <c r="D52" t="s">
         <v>172</v>
-      </c>
-      <c r="D52" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4639,7 +4760,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" t="s">
         <v>111</v>
@@ -4653,7 +4774,7 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D54" t="s">
         <v>111</v>
@@ -4667,13 +4788,13 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" t="s">
         <v>191</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>192</v>
-      </c>
-      <c r="F55" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4687,7 +4808,7 @@
         <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4698,7 +4819,7 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
@@ -4712,7 +4833,7 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
@@ -4726,7 +4847,7 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -4740,7 +4861,7 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D60" t="s">
         <v>51</v>
@@ -4754,7 +4875,7 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
@@ -4768,7 +4889,7 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
@@ -4779,16 +4900,16 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D63" t="s">
         <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4796,16 +4917,16 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D64" t="s">
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -4816,13 +4937,13 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -4833,13 +4954,13 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
         <v>96</v>
       </c>
       <c r="F66" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -4847,13 +4968,13 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
+        <v>216</v>
+      </c>
+      <c r="C67" t="s">
         <v>217</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>218</v>
-      </c>
-      <c r="D67" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -4861,10 +4982,10 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D68" t="s">
         <v>111</v>
@@ -4878,13 +4999,13 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
         <v>96</v>
       </c>
       <c r="F69" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -4892,10 +5013,10 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D70" t="s">
         <v>51</v>
@@ -4906,10 +5027,10 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -4923,7 +5044,7 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" t="s">
         <v>47</v>
@@ -4940,13 +5061,13 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D73" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F73" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -4957,10 +5078,10 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D74" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -4971,10 +5092,10 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D75" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -4985,13 +5106,13 @@
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D76" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F76" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -4999,10 +5120,10 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
+        <v>229</v>
+      </c>
+      <c r="C77" t="s">
         <v>230</v>
-      </c>
-      <c r="C77" t="s">
-        <v>231</v>
       </c>
       <c r="D77" t="s">
         <v>51</v>
@@ -5013,10 +5134,10 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D78" t="s">
         <v>51</v>
@@ -5027,10 +5148,10 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C79" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D79" t="s">
         <v>51</v>
@@ -5041,16 +5162,16 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C80" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" t="s">
         <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5058,16 +5179,16 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C81" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" t="s">
         <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5075,16 +5196,16 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" t="s">
         <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5092,10 +5213,10 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C83" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
@@ -5106,13 +5227,13 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C84" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" t="s">
         <v>243</v>
-      </c>
-      <c r="D84" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5120,13 +5241,13 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C85" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5134,10 +5255,10 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C86" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" t="s">
         <v>51</v>
@@ -5148,10 +5269,10 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" t="s">
         <v>51</v>
@@ -5162,13 +5283,13 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C88" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F88" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5176,16 +5297,16 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C89" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D89" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F89" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5193,16 +5314,16 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C90" t="s">
+        <v>407</v>
+      </c>
+      <c r="D90" t="s">
         <v>410</v>
       </c>
-      <c r="D90" t="s">
-        <v>413</v>
-      </c>
       <c r="F90" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5210,16 +5331,16 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
+        <v>406</v>
+      </c>
+      <c r="C91" t="s">
         <v>409</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>411</v>
+      </c>
+      <c r="F91" t="s">
         <v>412</v>
-      </c>
-      <c r="D91" t="s">
-        <v>414</v>
-      </c>
-      <c r="F91" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5227,13 +5348,13 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C92" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5241,10 +5362,10 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C93" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5252,13 +5373,13 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C94" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D94" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5266,13 +5387,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
+        <v>324</v>
+      </c>
+      <c r="C95" t="s">
         <v>327</v>
       </c>
-      <c r="C95" t="s">
-        <v>330</v>
-      </c>
       <c r="D95" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5280,16 +5401,16 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C96" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D96" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F96" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5297,13 +5418,13 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C97" t="s">
+        <v>332</v>
+      </c>
+      <c r="D97" t="s">
         <v>335</v>
-      </c>
-      <c r="D97" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5311,16 +5432,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C98" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F98" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5328,13 +5449,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C99" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D99" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5342,16 +5463,16 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C100" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F100" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5359,13 +5480,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C101" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D101" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5373,16 +5494,16 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C102" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D102" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F102" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5393,10 +5514,10 @@
         <v>70</v>
       </c>
       <c r="C103" t="s">
+        <v>342</v>
+      </c>
+      <c r="D103" t="s">
         <v>345</v>
-      </c>
-      <c r="D103" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5407,10 +5528,10 @@
         <v>70</v>
       </c>
       <c r="C104" t="s">
+        <v>343</v>
+      </c>
+      <c r="D104" t="s">
         <v>346</v>
-      </c>
-      <c r="D104" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5421,10 +5542,10 @@
         <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D105" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5432,16 +5553,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C106" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D106" t="s">
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5452,10 +5573,10 @@
         <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D107" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5466,10 +5587,10 @@
         <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D108" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5694,13 +5815,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
         <v>177</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>178</v>
-      </c>
-      <c r="G11" t="s">
-        <v>179</v>
       </c>
       <c r="H11" t="s">
         <v>129</v>
@@ -5714,13 +5835,13 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" t="s">
         <v>184</v>
       </c>
-      <c r="D12" t="s">
-        <v>185</v>
-      </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -5731,16 +5852,16 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D13" t="s">
+        <v>185</v>
+      </c>
+      <c r="G13" t="s">
         <v>186</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>187</v>
-      </c>
-      <c r="H13" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -5748,16 +5869,16 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" t="s">
+        <v>389</v>
+      </c>
+      <c r="H14" t="s">
         <v>209</v>
-      </c>
-      <c r="D14" t="s">
-        <v>392</v>
-      </c>
-      <c r="H14" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -5765,16 +5886,16 @@
         <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" t="s">
         <v>211</v>
-      </c>
-      <c r="D15" t="s">
-        <v>393</v>
-      </c>
-      <c r="H15" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -5782,13 +5903,13 @@
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -5796,10 +5917,10 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -5810,27 +5931,27 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G18" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F19" t="s">
         <v>104</v>
@@ -5838,36 +5959,36 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B20" t="s">
         <v>269</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" t="s">
+        <v>271</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" t="s">
         <v>272</v>
-      </c>
-      <c r="C20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" t="s">
-        <v>274</v>
-      </c>
-      <c r="F20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C21" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/roosterjs 8.xlsx
+++ b/roosterjs 8.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C4F46-A898-4539-B0CA-884A96C4F501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75093953-B63C-43EC-A525-83B2EC0E64DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25212" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="457">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1795,6 +1795,46 @@
   </si>
   <si>
     <t>PendingFormatStatePlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityPlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface.member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityPluginState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityPluginState.clickingPoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntityPluginState.knownEntityElements</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{pageX, pageY}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTMLElement[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeAfterLinkPlugin.getState</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2159,24 +2199,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071A7B6-AAB2-483B-89D6-B81D0338F88A}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.08203125" customWidth="1"/>
+    <col min="7" max="7" width="38.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2193,7 +2233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2204,7 +2244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2221,7 +2261,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2238,7 +2278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2255,7 +2295,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2312,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2286,7 +2326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2297,7 +2337,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2314,7 +2354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2331,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2348,7 +2388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2365,7 +2405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2376,7 +2416,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2390,7 +2430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2404,7 +2444,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2418,7 +2458,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2429,7 +2469,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2443,7 +2483,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2457,7 +2497,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2468,7 +2508,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2482,7 +2522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2496,7 +2536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2510,7 +2550,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2524,7 +2564,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2538,7 +2578,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2552,7 +2592,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2566,7 +2606,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2580,7 +2620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2594,7 +2634,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2608,7 +2648,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2622,7 +2662,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2636,7 +2676,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -2650,7 +2690,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2667,7 +2707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2684,7 +2724,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2698,7 +2738,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2715,7 +2755,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -2732,7 +2772,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2746,7 +2786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -2760,7 +2800,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -2777,7 +2817,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -2791,7 +2831,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -2805,7 +2845,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -2819,7 +2859,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -2833,7 +2873,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -2847,7 +2887,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -2861,7 +2901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -2875,7 +2915,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2889,7 +2929,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -2903,7 +2943,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -2917,7 +2957,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2928,7 +2968,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -2942,7 +2982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -2959,7 +2999,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -2973,7 +3013,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -2987,7 +3027,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -3001,7 +3041,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -3015,7 +3055,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -3029,7 +3069,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -3040,7 +3080,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -3054,7 +3094,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -3068,7 +3108,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -3082,7 +3122,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -3096,7 +3136,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -3110,7 +3150,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -3121,7 +3161,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -3135,7 +3175,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -3149,7 +3189,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -3160,7 +3200,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -3174,7 +3214,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -3188,7 +3228,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -3199,7 +3239,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -3213,7 +3253,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -3227,7 +3267,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -3241,7 +3281,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -3255,7 +3295,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -3269,7 +3309,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -3283,7 +3323,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -3297,7 +3337,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -3308,7 +3348,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -3319,7 +3359,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -3333,7 +3373,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -3344,7 +3384,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -3358,7 +3398,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -3369,7 +3409,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -3383,7 +3423,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -3397,7 +3437,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -3411,163 +3451,163 @@
         <v>417</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+      <c r="D89" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>243</v>
+        <v>449</v>
       </c>
       <c r="C90" t="s">
-        <v>276</v>
-      </c>
-      <c r="D90" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="C91" t="s">
-        <v>278</v>
+        <v>452</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>70</v>
+        <v>450</v>
       </c>
       <c r="C92" t="s">
-        <v>280</v>
+        <v>453</v>
       </c>
       <c r="D92" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>282</v>
+        <v>229</v>
       </c>
       <c r="C93" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>456</v>
+      </c>
+      <c r="D93" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C94" t="s">
-        <v>284</v>
-      </c>
-      <c r="D94" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>104</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+      <c r="D95" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C96" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D96" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="C97" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="D97" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C98" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C99" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="D99" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C100" t="s">
-        <v>293</v>
-      </c>
-      <c r="D100" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -3575,13 +3615,13 @@
         <v>250</v>
       </c>
       <c r="C101" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="D101" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3589,27 +3629,24 @@
         <v>250</v>
       </c>
       <c r="C102" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D102" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C103" t="s">
-        <v>296</v>
-      </c>
-      <c r="D103" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3617,24 +3654,27 @@
         <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D104" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+      <c r="D105" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3642,24 +3682,27 @@
         <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D106" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+      <c r="D107" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -3667,13 +3710,13 @@
         <v>250</v>
       </c>
       <c r="C108" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -3681,13 +3724,13 @@
         <v>250</v>
       </c>
       <c r="C109" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="D109" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>104</v>
       </c>
@@ -3695,10 +3738,10 @@
         <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -3706,38 +3749,38 @@
         <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>305</v>
-      </c>
-      <c r="D112" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+      <c r="D113" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>104</v>
       </c>
@@ -3745,13 +3788,13 @@
         <v>250</v>
       </c>
       <c r="C114" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D114" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>104</v>
       </c>
@@ -3759,10 +3802,10 @@
         <v>248</v>
       </c>
       <c r="C115" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>104</v>
       </c>
@@ -3770,38 +3813,38 @@
         <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C117" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+      <c r="D117" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C118" t="s">
-        <v>311</v>
-      </c>
-      <c r="D118" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -3809,27 +3852,24 @@
         <v>250</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>313</v>
-      </c>
-      <c r="D120" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -3837,13 +3877,13 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -3851,10 +3891,10 @@
         <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -3862,13 +3902,13 @@
         <v>250</v>
       </c>
       <c r="C123" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D123" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>104</v>
       </c>
@@ -3876,13 +3916,13 @@
         <v>250</v>
       </c>
       <c r="C124" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="D124" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -3890,13 +3930,13 @@
         <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D125" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>104</v>
       </c>
@@ -3904,23 +3944,90 @@
         <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D126" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>104</v>
       </c>
       <c r="B127" t="s">
+        <v>248</v>
+      </c>
+      <c r="C127" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>104</v>
+      </c>
+      <c r="B128" t="s">
         <v>250</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
+        <v>316</v>
+      </c>
+      <c r="D128" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>104</v>
+      </c>
+      <c r="B129" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" t="s">
+        <v>317</v>
+      </c>
+      <c r="D129" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>104</v>
+      </c>
+      <c r="B130" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" t="s">
+        <v>318</v>
+      </c>
+      <c r="D130" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>104</v>
+      </c>
+      <c r="B131" t="s">
+        <v>250</v>
+      </c>
+      <c r="C131" t="s">
+        <v>319</v>
+      </c>
+      <c r="D131" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" t="s">
         <v>320</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D132" t="s">
         <v>241</v>
       </c>
     </row>
@@ -3939,17 +4046,17 @@
       <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.4140625" customWidth="1"/>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="3" max="3" width="51.77734375" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" customWidth="1"/>
-    <col min="6" max="6" width="30.08203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3969,7 +4076,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3980,7 +4087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3997,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4014,7 +4121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4031,7 +4138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4045,7 +4152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4056,7 +4163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4070,7 +4177,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4084,7 +4191,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -4101,7 +4208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +4222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4132,7 +4239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4143,7 +4250,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -4157,7 +4264,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -4171,7 +4278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4188,7 +4295,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -4202,7 +4309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -4216,7 +4323,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -4233,7 +4340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -4247,7 +4354,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -4264,7 +4371,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4278,7 +4385,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4295,7 +4402,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -4309,7 +4416,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4326,7 +4433,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -4340,7 +4447,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -4357,7 +4464,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -4371,7 +4478,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -4388,7 +4495,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -4402,7 +4509,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4419,7 +4526,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4433,7 +4540,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -4450,7 +4557,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -4464,7 +4571,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -4481,7 +4588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -4498,7 +4605,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -4515,7 +4622,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -4532,7 +4639,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -4549,7 +4656,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -4566,7 +4673,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -4583,7 +4690,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -4600,7 +4707,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -4617,7 +4724,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -4634,7 +4741,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -4651,7 +4758,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -4665,7 +4772,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -4682,7 +4789,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -4696,7 +4803,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -4710,7 +4817,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -4724,7 +4831,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -4738,7 +4845,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -4752,7 +4859,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -4766,7 +4873,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -4780,7 +4887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -4797,7 +4904,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -4811,7 +4918,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -4825,7 +4932,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -4839,7 +4946,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -4853,7 +4960,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -4867,7 +4974,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -4881,7 +4988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -4895,7 +5002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -4912,7 +5019,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -4929,7 +5036,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -4946,7 +5053,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -4963,7 +5070,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -4977,7 +5084,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -4991,7 +5098,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -5008,7 +5115,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -5022,7 +5129,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -5036,7 +5143,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -5053,7 +5160,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -5070,7 +5177,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -5084,7 +5191,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -5098,7 +5205,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -5115,7 +5222,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -5129,7 +5236,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -5143,7 +5250,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -5157,7 +5264,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -5174,7 +5281,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -5191,7 +5298,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -5208,7 +5315,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -5222,7 +5329,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -5236,7 +5343,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -5250,7 +5357,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -5264,7 +5371,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -5278,7 +5385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -5292,7 +5399,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -5309,7 +5416,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -5326,7 +5433,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -5343,7 +5450,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5357,7 +5464,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5368,7 +5475,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -5382,7 +5489,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5396,7 +5503,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -5413,7 +5520,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -5427,7 +5534,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5444,7 +5551,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5458,7 +5565,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -5475,7 +5582,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5489,7 +5596,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5506,7 +5613,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -5520,7 +5627,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -5534,7 +5641,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5548,7 +5655,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5565,7 +5672,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5579,7 +5686,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -5607,19 +5714,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.75" customWidth="1"/>
-    <col min="2" max="2" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="40.83203125" customWidth="1"/>
-    <col min="4" max="4" width="62.08203125" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="18.08203125" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" customWidth="1"/>
-    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+    <col min="3" max="3" width="40.77734375" customWidth="1"/>
+    <col min="4" max="4" width="62.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" customWidth="1"/>
+    <col min="7" max="7" width="37.77734375" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -5648,7 +5755,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5665,7 +5772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5682,7 +5789,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -5699,7 +5806,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -5716,7 +5823,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -5733,7 +5840,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -5750,7 +5857,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -5770,7 +5877,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -5790,7 +5897,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -5807,7 +5914,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -5827,7 +5934,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -5844,7 +5951,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -5864,7 +5971,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -5881,7 +5988,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -5898,7 +6005,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -5912,7 +6019,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -5926,7 +6033,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -5940,7 +6047,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -5957,7 +6064,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -5977,7 +6084,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>290</v>
       </c>

--- a/roosterjs 8.xlsx
+++ b/roosterjs 8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75093953-B63C-43EC-A525-83B2EC0E64DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E9A17B-E78A-4DCD-A9B5-4762543009ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25212" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
   </bookViews>
   <sheets>
     <sheet name="Add" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="463">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1835,6 +1835,30 @@
   </si>
   <si>
     <t>TypeAfterLinkPlugin.getState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type.param</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalcDefaultFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalcDefaultFormat.core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditorCore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2199,24 +2223,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071A7B6-AAB2-483B-89D6-B81D0338F88A}">
-  <dimension ref="A1:F132"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.4140625" customWidth="1"/>
     <col min="3" max="3" width="70.6640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.08203125" customWidth="1"/>
     <col min="6" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="38.109375" customWidth="1"/>
+    <col min="7" max="7" width="38.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2233,7 +2257,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2244,7 +2268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2261,7 +2285,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2278,7 +2302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2295,7 +2319,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2312,7 +2336,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2326,7 +2350,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2337,7 +2361,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2354,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2371,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2388,7 +2412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2405,7 +2429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2416,7 +2440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2430,7 +2454,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -2444,7 +2468,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -2458,7 +2482,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2469,7 +2493,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2483,7 +2507,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -2497,7 +2521,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2508,7 +2532,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2522,7 +2546,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2536,7 +2560,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -2550,7 +2574,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2564,7 +2588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2578,7 +2602,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -2592,7 +2616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -2606,7 +2630,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -2620,7 +2644,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -2634,7 +2658,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -2648,7 +2672,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>109</v>
       </c>
@@ -2676,7 +2700,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -2690,7 +2714,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -2707,7 +2731,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -2724,7 +2748,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -2738,7 +2762,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -2755,7 +2779,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -2772,7 +2796,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2786,7 +2810,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -2800,7 +2824,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -2817,63 +2841,63 @@
         <v>443</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>109</v>
       </c>
       <c r="B42" t="s">
+        <v>457</v>
+      </c>
+      <c r="C42" t="s">
+        <v>459</v>
+      </c>
+      <c r="D42" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>458</v>
+      </c>
+      <c r="C43" t="s">
+        <v>460</v>
+      </c>
+      <c r="D43" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" t="s">
         <v>30</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C44" t="s">
         <v>151</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
         <v>157</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" t="s">
         <v>158</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>109</v>
-      </c>
-      <c r="B44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C44" t="s">
-        <v>160</v>
-      </c>
-      <c r="D44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" t="s">
-        <v>30</v>
-      </c>
-      <c r="C45" t="s">
-        <v>155</v>
-      </c>
-      <c r="D45" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -2881,27 +2905,27 @@
         <v>157</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D46" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -2909,13 +2933,13 @@
         <v>157</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -2923,52 +2947,55 @@
         <v>157</v>
       </c>
       <c r="C49" t="s">
+        <v>174</v>
+      </c>
+      <c r="D49" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C50" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>109</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
         <v>413</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" t="s">
         <v>28</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C52" t="s">
         <v>181</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D52" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>109</v>
-      </c>
-      <c r="B51" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" t="s">
-        <v>402</v>
-      </c>
-      <c r="D51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>109</v>
-      </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -2976,44 +3003,38 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
+        <v>402</v>
+      </c>
+      <c r="D53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55" t="s">
         <v>415</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D55" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>109</v>
-      </c>
-      <c r="B54" t="s">
-        <v>216</v>
-      </c>
-      <c r="C54" t="s">
-        <v>207</v>
-      </c>
-      <c r="D54" t="s">
-        <v>161</v>
-      </c>
-      <c r="E54" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" t="s">
-        <v>216</v>
-      </c>
-      <c r="C55" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -3021,186 +3042,192 @@
         <v>216</v>
       </c>
       <c r="C56" t="s">
+        <v>207</v>
+      </c>
+      <c r="D56" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C57" t="s">
+        <v>214</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" t="s">
         <v>379</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D58" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
         <v>224</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C59" t="s">
         <v>225</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F59" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B58" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
         <v>229</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C60" t="s">
         <v>416</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D60" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" t="s">
         <v>229</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C61" t="s">
         <v>418</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D61" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" t="s">
         <v>248</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C62" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>109</v>
-      </c>
-      <c r="B61" t="s">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
         <v>250</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C63" t="s">
         <v>251</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D63" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B64" t="s">
         <v>250</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>253</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D64" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" t="s">
         <v>28</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C65" t="s">
         <v>391</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D65" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>109</v>
-      </c>
-      <c r="B64" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>109</v>
+      </c>
+      <c r="B66" t="s">
         <v>28</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C66" t="s">
         <v>392</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D66" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>109</v>
-      </c>
-      <c r="B65" t="s">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" t="s">
         <v>229</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C67" t="s">
         <v>419</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D67" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>109</v>
-      </c>
-      <c r="B66" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
         <v>434</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C68" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>109</v>
+      </c>
+      <c r="B69" t="s">
         <v>250</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C69" t="s">
         <v>436</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>109</v>
-      </c>
-      <c r="B68" t="s">
-        <v>250</v>
-      </c>
-      <c r="C68" t="s">
-        <v>437</v>
-      </c>
-      <c r="D68" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>109</v>
-      </c>
-      <c r="B69" t="s">
-        <v>248</v>
-      </c>
-      <c r="C69" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -3208,38 +3235,38 @@
         <v>250</v>
       </c>
       <c r="C70" t="s">
+        <v>437</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" t="s">
+        <v>248</v>
+      </c>
+      <c r="C71" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" t="s">
+        <v>250</v>
+      </c>
+      <c r="C72" t="s">
         <v>257</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D72" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" t="s">
-        <v>250</v>
-      </c>
-      <c r="C71" t="s">
-        <v>258</v>
-      </c>
-      <c r="D71" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" t="s">
-        <v>248</v>
-      </c>
-      <c r="C72" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -3247,27 +3274,24 @@
         <v>250</v>
       </c>
       <c r="C73" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
-      </c>
-      <c r="D74" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -3275,13 +3299,13 @@
         <v>250</v>
       </c>
       <c r="C75" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D75" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -3289,13 +3313,13 @@
         <v>250</v>
       </c>
       <c r="C76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D76" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -3303,350 +3327,353 @@
         <v>250</v>
       </c>
       <c r="C77" t="s">
+        <v>261</v>
+      </c>
+      <c r="D77" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" t="s">
+        <v>250</v>
+      </c>
+      <c r="C78" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>250</v>
+      </c>
+      <c r="C79" t="s">
         <v>263</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>109</v>
-      </c>
-      <c r="B78" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
         <v>28</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>424</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D80" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>109</v>
-      </c>
-      <c r="B79" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
         <v>422</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>423</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D81" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>109</v>
-      </c>
-      <c r="B80" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>109</v>
+      </c>
+      <c r="B82" t="s">
         <v>444</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>109</v>
-      </c>
-      <c r="B81" t="s">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>109</v>
+      </c>
+      <c r="B83" t="s">
         <v>444</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>109</v>
-      </c>
-      <c r="B82" t="s">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" t="s">
         <v>445</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>446</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D84" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+      <c r="B85" t="s">
         <v>394</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" t="s">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>109</v>
+      </c>
+      <c r="B86" t="s">
         <v>229</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>420</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D86" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>109</v>
-      </c>
-      <c r="B85" t="s">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" t="s">
         <v>358</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C87" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>109</v>
-      </c>
-      <c r="B86" t="s">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" t="s">
         <v>360</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C88" t="s">
         <v>396</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D88" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>109</v>
-      </c>
-      <c r="B87" t="s">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" t="s">
         <v>360</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C89" t="s">
         <v>398</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D89" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>109</v>
-      </c>
-      <c r="B88" t="s">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>109</v>
+      </c>
+      <c r="B90" t="s">
         <v>229</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C90" t="s">
         <v>421</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D90" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" t="s">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>109</v>
+      </c>
+      <c r="B91" t="s">
         <v>229</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C91" t="s">
         <v>447</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D91" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>109</v>
-      </c>
-      <c r="B90" t="s">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" t="s">
         <v>449</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C92" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" t="s">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
         <v>450</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C93" t="s">
         <v>452</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D93" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>109</v>
-      </c>
-      <c r="B92" t="s">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>109</v>
+      </c>
+      <c r="B94" t="s">
         <v>450</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C94" t="s">
         <v>453</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D94" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>109</v>
-      </c>
-      <c r="B93" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>109</v>
+      </c>
+      <c r="B95" t="s">
         <v>229</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C95" t="s">
         <v>456</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D95" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>104</v>
-      </c>
-      <c r="B94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C94" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>104</v>
-      </c>
-      <c r="B95" t="s">
-        <v>243</v>
-      </c>
-      <c r="C95" t="s">
-        <v>276</v>
-      </c>
-      <c r="D95" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>70</v>
+        <v>248</v>
       </c>
       <c r="C96" t="s">
-        <v>278</v>
-      </c>
-      <c r="D96" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>70</v>
+        <v>243</v>
       </c>
       <c r="C97" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="C98" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+      <c r="D98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D99" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>248</v>
+        <v>282</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C101" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D101" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
-      </c>
-      <c r="D102" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C103" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+      <c r="D103" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -3654,27 +3681,24 @@
         <v>250</v>
       </c>
       <c r="C104" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D104" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
-        <v>293</v>
-      </c>
-      <c r="D105" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3682,13 +3706,13 @@
         <v>250</v>
       </c>
       <c r="C106" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D106" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -3696,13 +3720,13 @@
         <v>250</v>
       </c>
       <c r="C107" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D107" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -3710,13 +3734,13 @@
         <v>250</v>
       </c>
       <c r="C108" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>104</v>
       </c>
@@ -3724,24 +3748,27 @@
         <v>250</v>
       </c>
       <c r="C109" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D109" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C110" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="D110" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>104</v>
       </c>
@@ -3749,13 +3776,13 @@
         <v>250</v>
       </c>
       <c r="C111" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D111" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>104</v>
       </c>
@@ -3763,10 +3790,10 @@
         <v>248</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>104</v>
       </c>
@@ -3774,38 +3801,38 @@
         <v>250</v>
       </c>
       <c r="C113" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D113" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>302</v>
-      </c>
-      <c r="D114" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C115" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+      <c r="D115" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>104</v>
       </c>
@@ -3813,38 +3840,38 @@
         <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D116" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
-      </c>
-      <c r="D117" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C118" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="D118" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>104</v>
       </c>
@@ -3852,13 +3879,13 @@
         <v>250</v>
       </c>
       <c r="C119" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D119" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>104</v>
       </c>
@@ -3866,10 +3893,10 @@
         <v>248</v>
       </c>
       <c r="C120" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -3877,13 +3904,13 @@
         <v>250</v>
       </c>
       <c r="C121" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D121" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>104</v>
       </c>
@@ -3891,10 +3918,10 @@
         <v>248</v>
       </c>
       <c r="C122" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>104</v>
       </c>
@@ -3902,27 +3929,24 @@
         <v>250</v>
       </c>
       <c r="C123" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D123" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s">
-        <v>312</v>
-      </c>
-      <c r="D124" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>104</v>
       </c>
@@ -3930,13 +3954,13 @@
         <v>250</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D125" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>104</v>
       </c>
@@ -3944,24 +3968,27 @@
         <v>250</v>
       </c>
       <c r="C126" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D126" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C127" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="D127" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>104</v>
       </c>
@@ -3969,27 +3996,24 @@
         <v>250</v>
       </c>
       <c r="C128" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D128" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>104</v>
       </c>
       <c r="B129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C129" t="s">
-        <v>317</v>
-      </c>
-      <c r="D129" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>104</v>
       </c>
@@ -3997,13 +4021,13 @@
         <v>250</v>
       </c>
       <c r="C130" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D130" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>104</v>
       </c>
@@ -4011,13 +4035,13 @@
         <v>250</v>
       </c>
       <c r="C131" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D131" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>104</v>
       </c>
@@ -4025,9 +4049,37 @@
         <v>250</v>
       </c>
       <c r="C132" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>104</v>
+      </c>
+      <c r="B133" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133" t="s">
+        <v>319</v>
+      </c>
+      <c r="D133" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>104</v>
+      </c>
+      <c r="B134" t="s">
+        <v>250</v>
+      </c>
+      <c r="C134" t="s">
         <v>320</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D134" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4046,17 +4098,17 @@
       <selection activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.4140625" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="51.77734375" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="30.109375" customWidth="1"/>
+    <col min="5" max="5" width="9.58203125" customWidth="1"/>
+    <col min="6" max="6" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4076,7 +4128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4087,7 +4139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -4104,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4121,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4138,7 +4190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4152,7 +4204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -4163,7 +4215,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -4177,7 +4229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -4191,7 +4243,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -4208,7 +4260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -4222,7 +4274,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -4239,7 +4291,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -4250,7 +4302,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -4264,7 +4316,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -4278,7 +4330,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -4295,7 +4347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -4309,7 +4361,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -4323,7 +4375,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -4340,7 +4392,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -4354,7 +4406,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -4371,7 +4423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -4385,7 +4437,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -4402,7 +4454,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -4416,7 +4468,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -4433,7 +4485,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>61</v>
       </c>
@@ -4447,7 +4499,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>61</v>
       </c>
@@ -4464,7 +4516,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>61</v>
       </c>
@@ -4478,7 +4530,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -4495,7 +4547,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>61</v>
       </c>
@@ -4509,7 +4561,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4526,7 +4578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>61</v>
       </c>
@@ -4540,7 +4592,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -4557,7 +4609,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -4571,7 +4623,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>109</v>
       </c>
@@ -4588,7 +4640,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -4605,7 +4657,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -4622,7 +4674,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -4639,7 +4691,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -4656,7 +4708,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>109</v>
       </c>
@@ -4673,7 +4725,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>109</v>
       </c>
@@ -4690,7 +4742,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>109</v>
       </c>
@@ -4707,7 +4759,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -4724,7 +4776,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>109</v>
       </c>
@@ -4741,7 +4793,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -4758,7 +4810,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>109</v>
       </c>
@@ -4772,7 +4824,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>109</v>
       </c>
@@ -4789,7 +4841,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>109</v>
       </c>
@@ -4803,7 +4855,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -4817,7 +4869,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>109</v>
       </c>
@@ -4831,7 +4883,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>109</v>
       </c>
@@ -4845,7 +4897,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -4859,7 +4911,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>109</v>
       </c>
@@ -4873,7 +4925,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -4887,7 +4939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -4904,7 +4956,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -4918,7 +4970,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -4932,7 +4984,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -4946,7 +4998,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -4960,7 +5012,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>109</v>
       </c>
@@ -4974,7 +5026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>109</v>
       </c>
@@ -4988,7 +5040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>109</v>
       </c>
@@ -5002,7 +5054,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -5019,7 +5071,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>109</v>
       </c>
@@ -5036,7 +5088,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>109</v>
       </c>
@@ -5053,7 +5105,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>109</v>
       </c>
@@ -5070,7 +5122,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>109</v>
       </c>
@@ -5084,7 +5136,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -5098,7 +5150,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>109</v>
       </c>
@@ -5115,7 +5167,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>109</v>
       </c>
@@ -5129,7 +5181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -5143,7 +5195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>109</v>
       </c>
@@ -5160,7 +5212,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>109</v>
       </c>
@@ -5177,7 +5229,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -5191,7 +5243,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>109</v>
       </c>
@@ -5205,7 +5257,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>109</v>
       </c>
@@ -5222,7 +5274,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>109</v>
       </c>
@@ -5236,7 +5288,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>109</v>
       </c>
@@ -5250,7 +5302,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>109</v>
       </c>
@@ -5264,7 +5316,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>109</v>
       </c>
@@ -5281,7 +5333,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>109</v>
       </c>
@@ -5298,7 +5350,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>109</v>
       </c>
@@ -5315,7 +5367,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>109</v>
       </c>
@@ -5329,7 +5381,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -5343,7 +5395,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -5357,7 +5409,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>109</v>
       </c>
@@ -5371,7 +5423,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>109</v>
       </c>
@@ -5385,7 +5437,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>109</v>
       </c>
@@ -5399,7 +5451,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>109</v>
       </c>
@@ -5416,7 +5468,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>109</v>
       </c>
@@ -5433,7 +5485,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>109</v>
       </c>
@@ -5450,7 +5502,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>104</v>
       </c>
@@ -5464,7 +5516,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5475,7 +5527,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -5489,7 +5541,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -5503,7 +5555,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>104</v>
       </c>
@@ -5520,7 +5572,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -5534,7 +5586,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -5551,7 +5603,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>104</v>
       </c>
@@ -5565,7 +5617,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>104</v>
       </c>
@@ -5582,7 +5634,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -5596,7 +5648,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -5613,7 +5665,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>104</v>
       </c>
@@ -5627,7 +5679,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>104</v>
       </c>
@@ -5641,7 +5693,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -5655,7 +5707,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5672,7 +5724,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -5686,7 +5738,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>104</v>
       </c>
@@ -5714,19 +5766,19 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="27.44140625" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" customWidth="1"/>
-    <col min="4" max="4" width="62.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" customWidth="1"/>
-    <col min="7" max="7" width="37.77734375" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="27.4140625" customWidth="1"/>
+    <col min="3" max="3" width="40.75" customWidth="1"/>
+    <col min="4" max="4" width="62.08203125" customWidth="1"/>
+    <col min="5" max="5" width="14.4140625" customWidth="1"/>
+    <col min="6" max="6" width="18.08203125" customWidth="1"/>
+    <col min="7" max="7" width="37.75" customWidth="1"/>
+    <col min="8" max="8" width="22.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -5755,7 +5807,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -5772,7 +5824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5789,7 +5841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -5806,7 +5858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -5823,7 +5875,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -5840,7 +5892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -5857,7 +5909,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>109</v>
       </c>
@@ -5877,7 +5929,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>109</v>
       </c>
@@ -5897,7 +5949,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -5914,7 +5966,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>109</v>
       </c>
@@ -5934,7 +5986,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>109</v>
       </c>
@@ -5951,7 +6003,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>109</v>
       </c>
@@ -5971,7 +6023,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>109</v>
       </c>
@@ -5988,7 +6040,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -6005,7 +6057,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>109</v>
       </c>
@@ -6019,7 +6071,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -6033,7 +6085,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -6047,7 +6099,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>266</v>
       </c>
@@ -6064,7 +6116,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>266</v>
       </c>
@@ -6084,7 +6136,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>290</v>
       </c>

--- a/roosterjs 8.xlsx
+++ b/roosterjs 8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E9A17B-E78A-4DCD-A9B5-4762543009ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C38173-B811-4839-B6A1-3A06DF44852B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="484">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -660,10 +660,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EditWithUndo.canUndoByBackspace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type.param</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1084,14 +1080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UndoPluginState.getContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UndoPluginState.setContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UndoPluginState.snapshotsService</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1859,6 +1847,102 @@
   </si>
   <si>
     <t>EditorCore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type.member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUndoSnapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUndoSnapshot.core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUndoSnapshot.callback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUndoSnapshot.changeSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditorCore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditWithUndo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditWithUndo.core</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditWithUndo.callback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EditWithUndo.changeSource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreApiMap.addUndoSnapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreApiMap.editWithUndo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddUndoSnapshot.canUndoByBackspace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreApiMap.calcDefaultFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreApiMap.getContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreApiMap.restoreUndoSnapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoreApiMap.setContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CalcDefaultFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RestoreUndoSnapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SetContent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2223,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071A7B6-AAB2-483B-89D6-B81D0338F88A}">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2358,7 +2442,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2369,7 +2453,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -2386,7 +2470,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2403,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -2420,7 +2504,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2459,13 +2543,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C15" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2473,13 +2557,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C16" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D16" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2487,10 +2571,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2498,13 +2582,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2512,13 +2596,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C19" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2526,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C20" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2649,13 +2733,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
+        <v>423</v>
+      </c>
+      <c r="C29" t="s">
         <v>426</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>429</v>
-      </c>
-      <c r="D29" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2663,13 +2747,13 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
+        <v>424</v>
+      </c>
+      <c r="C30" t="s">
         <v>427</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>430</v>
-      </c>
-      <c r="D30" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,13 +2761,13 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" t="s">
         <v>428</v>
       </c>
-      <c r="C31" t="s">
-        <v>431</v>
-      </c>
       <c r="D31" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2756,10 +2840,10 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D36" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2770,13 +2854,13 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D37" t="s">
         <v>438</v>
       </c>
-      <c r="D37" t="s">
-        <v>441</v>
-      </c>
       <c r="F37" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2787,13 +2871,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
+        <v>436</v>
+      </c>
+      <c r="D38" t="s">
+        <v>437</v>
+      </c>
+      <c r="F38" t="s">
         <v>439</v>
-      </c>
-      <c r="D38" t="s">
-        <v>440</v>
-      </c>
-      <c r="F38" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2832,13 +2916,13 @@
         <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>156</v>
+        <v>475</v>
       </c>
       <c r="D41" t="s">
         <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2846,13 +2930,13 @@
         <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D42" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -2860,13 +2944,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C43" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D43" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2888,13 +2972,13 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C45" t="s">
         <v>157</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>158</v>
-      </c>
-      <c r="D45" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2902,13 +2986,13 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" t="s">
         <v>160</v>
-      </c>
-      <c r="D46" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -2930,13 +3014,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -2944,10 +3028,10 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
         <v>27</v>
@@ -2958,10 +3042,10 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" t="s">
         <v>49</v>
@@ -2972,13 +3056,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D51" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -2989,10 +3073,10 @@
         <v>28</v>
       </c>
       <c r="C52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D52" t="s">
         <v>181</v>
-      </c>
-      <c r="D52" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3003,7 +3087,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D53" t="s">
         <v>49</v>
@@ -3014,10 +3098,13 @@
         <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>200</v>
+        <v>476</v>
+      </c>
+      <c r="D54" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -3028,10 +3115,10 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>415</v>
+        <v>477</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -3039,16 +3126,13 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>478</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" t="s">
-        <v>162</v>
+        <v>482</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -3056,13 +3140,13 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>216</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>214</v>
+        <v>479</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3070,13 +3154,10 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>379</v>
-      </c>
-      <c r="D58" t="s">
-        <v>380</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3084,13 +3165,13 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>225</v>
-      </c>
-      <c r="F59" t="s">
-        <v>226</v>
+        <v>412</v>
+      </c>
+      <c r="D59" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3098,13 +3179,16 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C60" t="s">
-        <v>416</v>
+        <v>206</v>
       </c>
       <c r="D60" t="s">
-        <v>417</v>
+        <v>160</v>
+      </c>
+      <c r="E60" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3112,13 +3196,13 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C61" t="s">
-        <v>418</v>
+        <v>213</v>
       </c>
       <c r="D61" t="s">
-        <v>417</v>
+        <v>111</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3126,10 +3210,13 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="C62" t="s">
-        <v>249</v>
+        <v>376</v>
+      </c>
+      <c r="D62" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3137,13 +3224,13 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="C63" t="s">
-        <v>251</v>
-      </c>
-      <c r="D63" t="s">
-        <v>241</v>
+        <v>224</v>
+      </c>
+      <c r="F63" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3151,13 +3238,13 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="C64" t="s">
-        <v>253</v>
+        <v>413</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3165,13 +3252,13 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="D65" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3179,13 +3266,10 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>247</v>
       </c>
       <c r="C66" t="s">
-        <v>392</v>
-      </c>
-      <c r="D66" t="s">
-        <v>393</v>
+        <v>248</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3193,13 +3277,13 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="C67" t="s">
-        <v>419</v>
+        <v>250</v>
       </c>
       <c r="D67" t="s">
-        <v>417</v>
+        <v>240</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3207,10 +3291,13 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>434</v>
+        <v>249</v>
       </c>
       <c r="C68" t="s">
-        <v>435</v>
+        <v>252</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3218,13 +3305,13 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>436</v>
+        <v>388</v>
       </c>
       <c r="D69" t="s">
-        <v>252</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3232,13 +3319,13 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
-        <v>437</v>
+        <v>389</v>
       </c>
       <c r="D70" t="s">
-        <v>22</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3246,10 +3333,13 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="C71" t="s">
-        <v>256</v>
+        <v>416</v>
+      </c>
+      <c r="D71" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3257,13 +3347,10 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>431</v>
       </c>
       <c r="C72" t="s">
-        <v>257</v>
-      </c>
-      <c r="D72" t="s">
-        <v>241</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3271,13 +3358,13 @@
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C73" t="s">
-        <v>258</v>
+        <v>433</v>
       </c>
       <c r="D73" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3285,10 +3372,13 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s">
-        <v>259</v>
+        <v>434</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,13 +3386,10 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C75" t="s">
-        <v>264</v>
-      </c>
-      <c r="D75" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3310,13 +3397,13 @@
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D76" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3324,13 +3411,13 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C77" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="D77" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3338,13 +3425,10 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>262</v>
-      </c>
-      <c r="D78" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3352,13 +3436,13 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C79" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D79" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3366,13 +3450,13 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>249</v>
       </c>
       <c r="C80" t="s">
-        <v>424</v>
+        <v>259</v>
       </c>
       <c r="D80" t="s">
-        <v>425</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3380,13 +3464,13 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>422</v>
+        <v>249</v>
       </c>
       <c r="C81" t="s">
-        <v>423</v>
+        <v>260</v>
       </c>
       <c r="D81" t="s">
-        <v>417</v>
+        <v>240</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3394,10 +3478,13 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>444</v>
+        <v>28</v>
       </c>
       <c r="C82" t="s">
-        <v>440</v>
+        <v>421</v>
+      </c>
+      <c r="D82" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3405,10 +3492,13 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="C83" t="s">
-        <v>441</v>
+        <v>420</v>
+      </c>
+      <c r="D83" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3416,13 +3506,10 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C84" t="s">
-        <v>446</v>
-      </c>
-      <c r="D84" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3430,10 +3517,10 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3441,13 +3528,13 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>442</v>
       </c>
       <c r="C86" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="D86" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3455,10 +3542,10 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
       <c r="C87" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3466,13 +3553,13 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>360</v>
+        <v>228</v>
       </c>
       <c r="C88" t="s">
-        <v>396</v>
+        <v>417</v>
       </c>
       <c r="D88" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3480,13 +3567,10 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C89" t="s">
-        <v>398</v>
-      </c>
-      <c r="D89" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3494,13 +3578,13 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="C90" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="D90" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3508,13 +3592,13 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>357</v>
       </c>
       <c r="C91" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="D91" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3522,10 +3606,13 @@
         <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>449</v>
+        <v>228</v>
       </c>
       <c r="C92" t="s">
-        <v>451</v>
+        <v>418</v>
+      </c>
+      <c r="D92" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3533,13 +3620,13 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>450</v>
+        <v>228</v>
       </c>
       <c r="C93" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="D93" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3547,13 +3634,10 @@
         <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C94" t="s">
-        <v>453</v>
-      </c>
-      <c r="D94" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3561,38 +3645,41 @@
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>447</v>
       </c>
       <c r="C95" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D95" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>248</v>
+        <v>447</v>
       </c>
       <c r="C96" t="s">
-        <v>275</v>
+        <v>450</v>
+      </c>
+      <c r="D96" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C97" t="s">
-        <v>276</v>
+        <v>453</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>445</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3600,13 +3687,10 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="C98" t="s">
-        <v>278</v>
-      </c>
-      <c r="D98" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3614,13 +3698,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="C99" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D99" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3628,10 +3712,13 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>275</v>
+      </c>
+      <c r="D100" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3639,13 +3726,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>243</v>
+        <v>70</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D101" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3653,10 +3740,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="C102" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3664,13 +3751,13 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C103" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="D103" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -3678,13 +3765,10 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C104" t="s">
-        <v>288</v>
-      </c>
-      <c r="D104" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3692,10 +3776,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C105" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="D105" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3703,13 +3790,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C106" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="D106" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3717,13 +3804,10 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C107" t="s">
-        <v>293</v>
-      </c>
-      <c r="D107" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3731,13 +3815,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C108" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D108" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3745,13 +3829,13 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C109" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D109" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3759,13 +3843,13 @@
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C110" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="D110" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3773,13 +3857,13 @@
         <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="D111" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3787,10 +3871,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>298</v>
+        <v>293</v>
+      </c>
+      <c r="D112" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3798,13 +3885,13 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C113" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D113" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3812,10 +3899,10 @@
         <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C114" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3823,13 +3910,13 @@
         <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="D115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3837,13 +3924,10 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C116" t="s">
-        <v>302</v>
-      </c>
-      <c r="D116" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3851,10 +3935,13 @@
         <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C117" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="D117" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3862,13 +3949,13 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D118" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3876,13 +3963,10 @@
         <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C119" t="s">
-        <v>305</v>
-      </c>
-      <c r="D119" t="s">
-        <v>241</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3890,10 +3974,13 @@
         <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C120" t="s">
-        <v>306</v>
+        <v>301</v>
+      </c>
+      <c r="D120" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3901,13 +3988,13 @@
         <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C121" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3915,10 +4002,10 @@
         <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C122" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,13 +4013,13 @@
         <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C123" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D123" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3940,10 +4027,10 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C124" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3951,13 +4038,13 @@
         <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C125" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D125" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3965,13 +4052,10 @@
         <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C126" t="s">
-        <v>312</v>
-      </c>
-      <c r="D126" t="s">
-        <v>241</v>
+        <v>307</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3979,13 +4063,13 @@
         <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C127" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D127" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3993,13 +4077,13 @@
         <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C128" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="D128" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4007,10 +4091,13 @@
         <v>104</v>
       </c>
       <c r="B129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C129" t="s">
-        <v>315</v>
+        <v>310</v>
+      </c>
+      <c r="D129" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4018,13 +4105,13 @@
         <v>104</v>
       </c>
       <c r="B130" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C130" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D130" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4032,13 +4119,10 @@
         <v>104</v>
       </c>
       <c r="B131" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C131" t="s">
-        <v>317</v>
-      </c>
-      <c r="D131" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4046,13 +4130,13 @@
         <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C132" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="D132" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4060,13 +4144,13 @@
         <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C133" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4074,13 +4158,41 @@
         <v>104</v>
       </c>
       <c r="B134" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C134" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D134" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>104</v>
+      </c>
+      <c r="B135" t="s">
+        <v>249</v>
+      </c>
+      <c r="C135" t="s">
+        <v>316</v>
+      </c>
+      <c r="D135" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>104</v>
+      </c>
+      <c r="B136" t="s">
+        <v>249</v>
+      </c>
+      <c r="C136" t="s">
+        <v>317</v>
+      </c>
+      <c r="D136" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4699,13 +4811,13 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D39" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4716,13 +4828,13 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D40" t="s">
         <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4733,13 +4845,13 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D41" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F41" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4750,13 +4862,13 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D42" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F42" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4767,13 +4879,13 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D43" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F43" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4818,10 +4930,10 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D46" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4832,7 +4944,7 @@
         <v>30</v>
       </c>
       <c r="C47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D47" t="s">
         <v>49</v>
@@ -4846,13 +4958,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4860,10 +4972,10 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D49" t="s">
         <v>72</v>
@@ -4874,13 +4986,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -4888,13 +5000,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -4902,13 +5014,13 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
         <v>171</v>
-      </c>
-      <c r="D52" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -4919,7 +5031,7 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53" t="s">
         <v>111</v>
@@ -4933,7 +5045,7 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54" t="s">
         <v>111</v>
@@ -4947,13 +5059,13 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="s">
         <v>190</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>191</v>
-      </c>
-      <c r="F55" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -4967,7 +5079,7 @@
         <v>129</v>
       </c>
       <c r="F56" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -4978,7 +5090,7 @@
         <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D57" t="s">
         <v>51</v>
@@ -4992,7 +5104,7 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
@@ -5006,7 +5118,7 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -5020,7 +5132,7 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D60" t="s">
         <v>51</v>
@@ -5034,7 +5146,7 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
@@ -5048,7 +5160,7 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
@@ -5059,16 +5171,16 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D63" t="s">
         <v>111</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5076,16 +5188,16 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" t="s">
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5096,13 +5208,13 @@
         <v>28</v>
       </c>
       <c r="C65" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
         <v>27</v>
       </c>
       <c r="F65" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5113,13 +5225,13 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
         <v>96</v>
       </c>
       <c r="F66" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5127,13 +5239,13 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" t="s">
         <v>216</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>217</v>
-      </c>
-      <c r="D67" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5141,10 +5253,10 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D68" t="s">
         <v>111</v>
@@ -5158,13 +5270,13 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
         <v>96</v>
       </c>
       <c r="F69" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5172,10 +5284,10 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
         <v>51</v>
@@ -5186,10 +5298,10 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
         <v>27</v>
@@ -5203,7 +5315,7 @@
         <v>28</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D72" t="s">
         <v>47</v>
@@ -5220,13 +5332,13 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D73" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F73" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -5237,10 +5349,10 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5251,10 +5363,10 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -5265,13 +5377,13 @@
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D76" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F76" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5279,10 +5391,10 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
+        <v>228</v>
+      </c>
+      <c r="C77" t="s">
         <v>229</v>
-      </c>
-      <c r="C77" t="s">
-        <v>230</v>
       </c>
       <c r="D77" t="s">
         <v>51</v>
@@ -5293,10 +5405,10 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D78" t="s">
         <v>51</v>
@@ -5307,10 +5419,10 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C79" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D79" t="s">
         <v>51</v>
@@ -5321,16 +5433,16 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C80" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D80" t="s">
         <v>51</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -5338,16 +5450,16 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C81" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" t="s">
         <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5355,16 +5467,16 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C82" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D82" t="s">
         <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5372,10 +5484,10 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C83" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
@@ -5386,13 +5498,13 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C84" t="s">
+        <v>241</v>
+      </c>
+      <c r="D84" t="s">
         <v>242</v>
-      </c>
-      <c r="D84" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5400,13 +5512,13 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C85" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D85" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5414,10 +5526,10 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C86" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" t="s">
         <v>51</v>
@@ -5428,10 +5540,10 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C87" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D87" t="s">
         <v>51</v>
@@ -5442,13 +5554,13 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C88" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F88" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5456,16 +5568,16 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C89" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D89" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F89" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5473,16 +5585,16 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C90" t="s">
+        <v>404</v>
+      </c>
+      <c r="D90" t="s">
         <v>407</v>
       </c>
-      <c r="D90" t="s">
-        <v>410</v>
-      </c>
       <c r="F90" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5490,16 +5602,16 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
+        <v>403</v>
+      </c>
+      <c r="C91" t="s">
         <v>406</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>408</v>
+      </c>
+      <c r="F91" t="s">
         <v>409</v>
-      </c>
-      <c r="D91" t="s">
-        <v>411</v>
-      </c>
-      <c r="F91" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -5507,13 +5619,13 @@
         <v>104</v>
       </c>
       <c r="B92" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C92" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F92" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5521,10 +5633,10 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C93" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5532,13 +5644,13 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5546,13 +5658,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
+        <v>321</v>
+      </c>
+      <c r="C95" t="s">
         <v>324</v>
       </c>
-      <c r="C95" t="s">
-        <v>327</v>
-      </c>
       <c r="D95" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5560,16 +5672,16 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C96" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F96" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5577,13 +5689,13 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C97" t="s">
+        <v>329</v>
+      </c>
+      <c r="D97" t="s">
         <v>332</v>
-      </c>
-      <c r="D97" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -5591,16 +5703,16 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C98" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D98" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F98" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5608,13 +5720,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C99" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D99" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5622,16 +5734,16 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C100" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D100" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F100" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5639,13 +5751,13 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C101" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D101" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5653,16 +5765,16 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C102" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D102" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F102" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5673,10 +5785,10 @@
         <v>70</v>
       </c>
       <c r="C103" t="s">
+        <v>339</v>
+      </c>
+      <c r="D103" t="s">
         <v>342</v>
-      </c>
-      <c r="D103" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5687,10 +5799,10 @@
         <v>70</v>
       </c>
       <c r="C104" t="s">
+        <v>340</v>
+      </c>
+      <c r="D104" t="s">
         <v>343</v>
-      </c>
-      <c r="D104" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5701,10 +5813,10 @@
         <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D105" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5712,16 +5824,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C106" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D106" t="s">
         <v>65</v>
       </c>
       <c r="F106" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5732,10 +5844,10 @@
         <v>70</v>
       </c>
       <c r="C107" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D107" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5746,10 +5858,10 @@
         <v>70</v>
       </c>
       <c r="C108" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D108" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5760,10 +5872,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28AFE260-49C0-4189-BAD9-9BBD05866651}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -5974,13 +6086,13 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" t="s">
         <v>176</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>177</v>
-      </c>
-      <c r="G11" t="s">
-        <v>178</v>
       </c>
       <c r="H11" t="s">
         <v>129</v>
@@ -5994,13 +6106,13 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" t="s">
         <v>183</v>
       </c>
-      <c r="D12" t="s">
-        <v>184</v>
-      </c>
       <c r="G12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -6011,16 +6123,16 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
+        <v>184</v>
+      </c>
+      <c r="G13" t="s">
         <v>185</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>186</v>
-      </c>
-      <c r="H13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -6028,16 +6140,16 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" t="s">
         <v>208</v>
-      </c>
-      <c r="D14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H14" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -6045,16 +6157,16 @@
         <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" t="s">
+        <v>387</v>
+      </c>
+      <c r="H15" t="s">
         <v>210</v>
-      </c>
-      <c r="D15" t="s">
-        <v>390</v>
-      </c>
-      <c r="H15" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -6062,13 +6174,13 @@
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6076,10 +6188,10 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -6090,64 +6202,149 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>460</v>
       </c>
       <c r="C19" t="s">
-        <v>267</v>
+        <v>462</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F19" t="s">
-        <v>104</v>
+        <v>466</v>
+      </c>
+      <c r="G19" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
-        <v>270</v>
+        <v>463</v>
       </c>
       <c r="D20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F20" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" t="s">
-        <v>272</v>
+        <v>467</v>
+      </c>
+      <c r="G20" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>248</v>
+        <v>461</v>
       </c>
       <c r="C21" t="s">
-        <v>275</v>
+        <v>464</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>289</v>
+        <v>470</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>461</v>
+      </c>
+      <c r="C22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" t="s">
+        <v>472</v>
+      </c>
+      <c r="C23" t="s">
+        <v>473</v>
+      </c>
+      <c r="D23" t="s">
+        <v>462</v>
+      </c>
+      <c r="G23" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>263</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>263</v>
+      </c>
+      <c r="B25" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" t="s">
+        <v>267</v>
+      </c>
+      <c r="D25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>287</v>
+      </c>
+      <c r="B26" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" t="s">
+        <v>272</v>
+      </c>
+      <c r="G26" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/roosterjs 8.xlsx
+++ b/roosterjs 8.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\roosterjs\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C38173-B811-4839-B6A1-3A06DF44852B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDD1159-E834-44AE-965F-C5F63AC236BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="20880" xr2:uid="{D28651F8-BDF3-4BEE-B8E5-9A987CC4E961}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="486">
   <si>
     <t>Package</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,10 +500,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GenericContentEditFeature&lt;Tevent&gt;.description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EditorCore.corePlugins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1943,6 +1939,18 @@
   </si>
   <si>
     <t>SetContent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClipboardItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>use ClipboardData instead</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2307,10 +2315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8071A7B6-AAB2-483B-89D6-B81D0338F88A}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD83"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2442,7 +2450,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2453,7 +2461,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>
@@ -2470,7 +2478,7 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2487,7 +2495,7 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -2504,7 +2512,7 @@
         <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -2543,13 +2551,13 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C15" t="s">
         <v>349</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>350</v>
-      </c>
-      <c r="D15" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2557,13 +2565,13 @@
         <v>3</v>
       </c>
       <c r="B16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" t="s">
         <v>352</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>353</v>
-      </c>
-      <c r="D16" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2571,10 +2579,10 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" t="s">
         <v>355</v>
-      </c>
-      <c r="C17" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2582,13 +2590,13 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
+        <v>356</v>
+      </c>
+      <c r="C18" t="s">
+        <v>396</v>
+      </c>
+      <c r="D18" t="s">
         <v>357</v>
-      </c>
-      <c r="C18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2596,13 +2604,13 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2610,10 +2618,10 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C20" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2733,13 +2741,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C29" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2747,13 +2755,13 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C30" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D30" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2761,13 +2769,13 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2792,10 +2800,13 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D33" t="s">
-        <v>101</v>
+        <v>130</v>
+      </c>
+      <c r="F33" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -2806,13 +2817,13 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="D34" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2823,13 +2834,10 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>147</v>
+        <v>373</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
-      </c>
-      <c r="F35" t="s">
-        <v>149</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -2840,10 +2848,13 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>374</v>
+        <v>434</v>
       </c>
       <c r="D36" t="s">
-        <v>375</v>
+        <v>437</v>
+      </c>
+      <c r="F36" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -2857,10 +2868,10 @@
         <v>435</v>
       </c>
       <c r="D37" t="s">
+        <v>436</v>
+      </c>
+      <c r="F37" t="s">
         <v>438</v>
-      </c>
-      <c r="F37" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -2871,13 +2882,10 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>436</v>
+        <v>149</v>
       </c>
       <c r="D38" t="s">
-        <v>437</v>
-      </c>
-      <c r="F38" t="s">
-        <v>439</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -2888,10 +2896,10 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D39" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -2899,13 +2907,16 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>154</v>
+        <v>474</v>
       </c>
       <c r="D40" t="s">
-        <v>155</v>
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -2913,16 +2924,13 @@
         <v>109</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>453</v>
       </c>
       <c r="C41" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
-      </c>
-      <c r="F41" t="s">
-        <v>440</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -2944,13 +2952,13 @@
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>455</v>
+        <v>30</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
+        <v>150</v>
       </c>
       <c r="D43" t="s">
-        <v>459</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -2958,13 +2966,13 @@
         <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="C44" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D44" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -2972,13 +2980,13 @@
         <v>109</v>
       </c>
       <c r="B45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C45" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D45" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -2986,13 +2994,13 @@
         <v>109</v>
       </c>
       <c r="B46" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D46" t="s">
-        <v>160</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -3000,13 +3008,13 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>155</v>
       </c>
       <c r="C47" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -3014,13 +3022,13 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C48" t="s">
         <v>172</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -3028,13 +3036,13 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
         <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -3042,13 +3050,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>174</v>
+        <v>409</v>
       </c>
       <c r="D50" t="s">
-        <v>49</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -3056,13 +3064,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
-        <v>410</v>
+        <v>179</v>
       </c>
       <c r="D51" t="s">
-        <v>411</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -3073,10 +3081,10 @@
         <v>28</v>
       </c>
       <c r="C52" t="s">
-        <v>180</v>
+        <v>398</v>
       </c>
       <c r="D52" t="s">
-        <v>181</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -3087,10 +3095,10 @@
         <v>28</v>
       </c>
       <c r="C53" t="s">
-        <v>399</v>
+        <v>475</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>479</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3140,13 +3148,10 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>479</v>
-      </c>
-      <c r="D57" t="s">
-        <v>483</v>
+        <v>198</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -3154,10 +3159,13 @@
         <v>109</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>411</v>
+      </c>
+      <c r="D58" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
@@ -3165,13 +3173,16 @@
         <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="D59" t="s">
-        <v>51</v>
+        <v>159</v>
+      </c>
+      <c r="E59" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -3179,16 +3190,13 @@
         <v>109</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D60" t="s">
-        <v>160</v>
-      </c>
-      <c r="E60" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -3196,13 +3204,13 @@
         <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>375</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
@@ -3210,13 +3218,13 @@
         <v>109</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C62" t="s">
-        <v>376</v>
-      </c>
-      <c r="D62" t="s">
-        <v>377</v>
+        <v>223</v>
+      </c>
+      <c r="F62" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -3224,13 +3232,13 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C63" t="s">
-        <v>224</v>
-      </c>
-      <c r="F63" t="s">
-        <v>225</v>
+        <v>412</v>
+      </c>
+      <c r="D63" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -3238,13 +3246,13 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C64" t="s">
+        <v>414</v>
+      </c>
+      <c r="D64" t="s">
         <v>413</v>
-      </c>
-      <c r="D64" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3252,13 +3260,10 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C65" t="s">
-        <v>415</v>
-      </c>
-      <c r="D65" t="s">
-        <v>414</v>
+        <v>247</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3266,10 +3271,13 @@
         <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C66" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="D66" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3277,13 +3285,13 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C67" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D67" t="s">
-        <v>240</v>
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3291,13 +3299,13 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>252</v>
+        <v>387</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3311,7 +3319,7 @@
         <v>388</v>
       </c>
       <c r="D69" t="s">
-        <v>370</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3319,13 +3327,13 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="C70" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="D70" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3333,13 +3341,10 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>228</v>
+        <v>430</v>
       </c>
       <c r="C71" t="s">
-        <v>416</v>
-      </c>
-      <c r="D71" t="s">
-        <v>414</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3347,24 +3352,27 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>431</v>
+        <v>248</v>
       </c>
       <c r="C72" t="s">
         <v>432</v>
       </c>
+      <c r="D72" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C73" t="s">
         <v>433</v>
       </c>
       <c r="D73" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3372,13 +3380,10 @@
         <v>109</v>
       </c>
       <c r="B74" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C74" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" t="s">
-        <v>22</v>
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3386,24 +3391,27 @@
         <v>109</v>
       </c>
       <c r="B75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C75" t="s">
         <v>255</v>
       </c>
+      <c r="D75" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C76" t="s">
         <v>256</v>
       </c>
       <c r="D76" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3411,24 +3419,24 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C77" t="s">
         <v>257</v>
       </c>
-      <c r="D77" t="s">
-        <v>242</v>
-      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C78" t="s">
-        <v>258</v>
+        <v>260</v>
+      </c>
+      <c r="D78" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3436,13 +3444,13 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C79" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D79" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3450,13 +3458,13 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C80" t="s">
         <v>259</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3464,13 +3472,13 @@
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>420</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>421</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3478,13 +3486,13 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>28</v>
+        <v>418</v>
       </c>
       <c r="C82" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D82" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3492,13 +3500,10 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
       <c r="C83" t="s">
-        <v>420</v>
-      </c>
-      <c r="D83" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3506,7 +3511,7 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C84" t="s">
         <v>437</v>
@@ -3520,7 +3525,10 @@
         <v>441</v>
       </c>
       <c r="C85" t="s">
-        <v>438</v>
+        <v>442</v>
+      </c>
+      <c r="D85" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3528,13 +3536,10 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>442</v>
+        <v>390</v>
       </c>
       <c r="C86" t="s">
-        <v>443</v>
-      </c>
-      <c r="D86" t="s">
-        <v>432</v>
+        <v>374</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3542,10 +3547,13 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>391</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>416</v>
+      </c>
+      <c r="D87" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3553,13 +3561,10 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>228</v>
+        <v>354</v>
       </c>
       <c r="C88" t="s">
-        <v>417</v>
-      </c>
-      <c r="D88" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3567,24 +3572,27 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C89" t="s">
         <v>392</v>
       </c>
+      <c r="D89" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C90" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D90" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3592,13 +3600,13 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
-        <v>357</v>
+        <v>227</v>
       </c>
       <c r="C91" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="D91" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3606,13 +3614,13 @@
         <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C92" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="D92" t="s">
-        <v>414</v>
+        <v>444</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3620,13 +3628,10 @@
         <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>228</v>
+        <v>445</v>
       </c>
       <c r="C93" t="s">
-        <v>444</v>
-      </c>
-      <c r="D93" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3639,13 +3644,16 @@
       <c r="C94" t="s">
         <v>448</v>
       </c>
+      <c r="D94" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>109</v>
       </c>
       <c r="B95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C95" t="s">
         <v>449</v>
@@ -3659,27 +3667,24 @@
         <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>447</v>
+        <v>227</v>
       </c>
       <c r="C96" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D96" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="C97" t="s">
-        <v>453</v>
-      </c>
-      <c r="D97" t="s">
-        <v>445</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3687,10 +3692,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C98" t="s">
         <v>272</v>
+      </c>
+      <c r="D98" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3698,13 +3706,13 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="C99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3715,10 +3723,10 @@
         <v>70</v>
       </c>
       <c r="C100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3726,13 +3734,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>70</v>
+        <v>278</v>
       </c>
       <c r="C101" t="s">
-        <v>277</v>
-      </c>
-      <c r="D101" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -3740,10 +3745,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="C102" t="s">
         <v>280</v>
+      </c>
+      <c r="D102" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3751,12 +3759,9 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C103" t="s">
-        <v>281</v>
-      </c>
-      <c r="D103" t="s">
         <v>282</v>
       </c>
     </row>
@@ -3765,10 +3770,13 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C104" t="s">
         <v>283</v>
+      </c>
+      <c r="D104" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -3776,13 +3784,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C105" t="s">
         <v>284</v>
       </c>
       <c r="D105" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -3790,13 +3798,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C106" t="s">
-        <v>285</v>
-      </c>
-      <c r="D106" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3804,10 +3809,13 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C107" t="s">
         <v>288</v>
+      </c>
+      <c r="D107" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -3815,13 +3823,13 @@
         <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
         <v>289</v>
       </c>
       <c r="D108" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -3829,13 +3837,13 @@
         <v>104</v>
       </c>
       <c r="B109" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C109" t="s">
         <v>290</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -3843,13 +3851,13 @@
         <v>104</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
         <v>291</v>
       </c>
       <c r="D110" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -3857,13 +3865,13 @@
         <v>104</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C111" t="s">
         <v>292</v>
       </c>
       <c r="D111" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -3871,13 +3879,13 @@
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C112" t="s">
         <v>293</v>
       </c>
       <c r="D112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -3885,13 +3893,10 @@
         <v>104</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C113" t="s">
         <v>294</v>
-      </c>
-      <c r="D113" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -3899,10 +3904,13 @@
         <v>104</v>
       </c>
       <c r="B114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
         <v>295</v>
+      </c>
+      <c r="D114" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -3910,13 +3918,10 @@
         <v>104</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C115" t="s">
         <v>296</v>
-      </c>
-      <c r="D115" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3924,10 +3929,13 @@
         <v>104</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C116" t="s">
         <v>297</v>
+      </c>
+      <c r="D116" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3935,13 +3943,13 @@
         <v>104</v>
       </c>
       <c r="B117" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C117" t="s">
         <v>298</v>
       </c>
       <c r="D117" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3949,13 +3957,10 @@
         <v>104</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C118" t="s">
         <v>299</v>
-      </c>
-      <c r="D118" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3963,10 +3968,13 @@
         <v>104</v>
       </c>
       <c r="B119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s">
         <v>300</v>
+      </c>
+      <c r="D119" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3974,13 +3982,13 @@
         <v>104</v>
       </c>
       <c r="B120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C120" t="s">
         <v>301</v>
       </c>
       <c r="D120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3988,13 +3996,10 @@
         <v>104</v>
       </c>
       <c r="B121" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C121" t="s">
         <v>302</v>
-      </c>
-      <c r="D121" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4002,10 +4007,13 @@
         <v>104</v>
       </c>
       <c r="B122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C122" t="s">
         <v>303</v>
+      </c>
+      <c r="D122" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4013,13 +4021,10 @@
         <v>104</v>
       </c>
       <c r="B123" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C123" t="s">
         <v>304</v>
-      </c>
-      <c r="D123" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4027,10 +4032,13 @@
         <v>104</v>
       </c>
       <c r="B124" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C124" t="s">
         <v>305</v>
+      </c>
+      <c r="D124" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4038,13 +4046,10 @@
         <v>104</v>
       </c>
       <c r="B125" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C125" t="s">
         <v>306</v>
-      </c>
-      <c r="D125" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4052,10 +4057,13 @@
         <v>104</v>
       </c>
       <c r="B126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C126" t="s">
         <v>307</v>
+      </c>
+      <c r="D126" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4063,13 +4071,13 @@
         <v>104</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C127" t="s">
         <v>308</v>
       </c>
       <c r="D127" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4077,13 +4085,13 @@
         <v>104</v>
       </c>
       <c r="B128" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C128" t="s">
         <v>309</v>
       </c>
       <c r="D128" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4091,13 +4099,13 @@
         <v>104</v>
       </c>
       <c r="B129" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C129" t="s">
         <v>310</v>
       </c>
       <c r="D129" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4105,13 +4113,10 @@
         <v>104</v>
       </c>
       <c r="B130" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C130" t="s">
         <v>311</v>
-      </c>
-      <c r="D130" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4119,10 +4124,13 @@
         <v>104</v>
       </c>
       <c r="B131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C131" t="s">
         <v>312</v>
+      </c>
+      <c r="D131" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4130,13 +4138,13 @@
         <v>104</v>
       </c>
       <c r="B132" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C132" t="s">
         <v>313</v>
       </c>
       <c r="D132" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4144,13 +4152,13 @@
         <v>104</v>
       </c>
       <c r="B133" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C133" t="s">
         <v>314</v>
       </c>
       <c r="D133" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4158,13 +4166,13 @@
         <v>104</v>
       </c>
       <c r="B134" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C134" t="s">
         <v>315</v>
       </c>
       <c r="D134" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4172,27 +4180,13 @@
         <v>104</v>
       </c>
       <c r="B135" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C135" t="s">
         <v>316</v>
       </c>
       <c r="D135" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
-        <v>104</v>
-      </c>
-      <c r="B136" t="s">
-        <v>249</v>
-      </c>
-      <c r="C136" t="s">
-        <v>317</v>
-      </c>
-      <c r="D136" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4204,10 +4198,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE16B634-B0AC-4AD5-8573-08B94DE84278}">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F91" sqref="F91"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4444,19 +4438,16 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>483</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>95</v>
+        <v>484</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -4464,13 +4455,16 @@
         <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>95</v>
+      </c>
+      <c r="F17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -4481,10 +4475,10 @@
         <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -4492,16 +4486,13 @@
         <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -4509,13 +4500,16 @@
         <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -4523,16 +4517,13 @@
         <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -4540,13 +4531,16 @@
         <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -4554,16 +4548,13 @@
         <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -4571,13 +4562,16 @@
         <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -4585,16 +4579,13 @@
         <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -4602,13 +4593,16 @@
         <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -4616,16 +4610,13 @@
         <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -4633,13 +4624,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -4647,16 +4641,13 @@
         <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -4664,13 +4655,16 @@
         <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -4678,16 +4672,13 @@
         <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
-      </c>
-      <c r="F31" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -4695,30 +4686,30 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -4729,10 +4720,13 @@
         <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -4743,13 +4737,10 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -4760,13 +4751,13 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -4777,13 +4768,13 @@
         <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="F37" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -4794,13 +4785,13 @@
         <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -4811,13 +4802,13 @@
         <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>362</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>363</v>
+        <v>47</v>
       </c>
       <c r="F39" t="s">
-        <v>364</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -4828,13 +4819,13 @@
         <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>362</v>
       </c>
       <c r="F40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
@@ -4845,13 +4836,13 @@
         <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D41" t="s">
-        <v>360</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -4862,13 +4853,13 @@
         <v>28</v>
       </c>
       <c r="C42" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D42" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="F42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -4879,13 +4870,13 @@
         <v>28</v>
       </c>
       <c r="C43" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="D43" t="s">
-        <v>401</v>
+        <v>369</v>
       </c>
       <c r="F43" t="s">
-        <v>402</v>
+        <v>370</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -4896,13 +4887,13 @@
         <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>399</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>400</v>
       </c>
       <c r="F44" t="s">
-        <v>135</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -4913,13 +4904,13 @@
         <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="F45" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -4930,10 +4921,13 @@
         <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>372</v>
+        <v>151</v>
       </c>
       <c r="D46" t="s">
-        <v>373</v>
+        <v>67</v>
+      </c>
+      <c r="F46" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -4941,16 +4935,13 @@
         <v>109</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>371</v>
       </c>
       <c r="D47" t="s">
-        <v>49</v>
-      </c>
-      <c r="F47" t="s">
-        <v>153</v>
+        <v>372</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -4958,13 +4949,16 @@
         <v>109</v>
       </c>
       <c r="B48" t="s">
-        <v>156</v>
+        <v>30</v>
       </c>
       <c r="C48" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>158</v>
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
@@ -4972,13 +4966,13 @@
         <v>109</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>72</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -4986,13 +4980,13 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>171</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -5000,13 +4994,13 @@
         <v>109</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -5014,13 +5008,13 @@
         <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" t="s">
         <v>170</v>
-      </c>
-      <c r="D52" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -5028,13 +5022,13 @@
         <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -5045,7 +5039,7 @@
         <v>28</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D54" t="s">
         <v>111</v>
@@ -5059,13 +5053,10 @@
         <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>190</v>
-      </c>
-      <c r="F55" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -5073,13 +5064,16 @@
         <v>109</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>129</v>
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
+        <v>189</v>
       </c>
       <c r="F56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -5087,13 +5081,13 @@
         <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
-      </c>
-      <c r="D57" t="s">
-        <v>51</v>
+        <v>128</v>
+      </c>
+      <c r="F57" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -5104,7 +5098,7 @@
         <v>28</v>
       </c>
       <c r="C58" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D58" t="s">
         <v>51</v>
@@ -5118,7 +5112,7 @@
         <v>28</v>
       </c>
       <c r="C59" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D59" t="s">
         <v>51</v>
@@ -5132,7 +5126,7 @@
         <v>28</v>
       </c>
       <c r="C60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D60" t="s">
         <v>51</v>
@@ -5146,7 +5140,7 @@
         <v>28</v>
       </c>
       <c r="C61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D61" t="s">
         <v>51</v>
@@ -5160,7 +5154,7 @@
         <v>28</v>
       </c>
       <c r="C62" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" t="s">
         <v>51</v>
@@ -5171,16 +5165,13 @@
         <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
-      </c>
-      <c r="F63" t="s">
-        <v>204</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -5188,16 +5179,16 @@
         <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
         <v>111</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -5205,16 +5196,16 @@
         <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C65" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D65" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="F65" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -5225,13 +5216,13 @@
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -5239,13 +5230,16 @@
         <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D67" t="s">
-        <v>217</v>
+        <v>96</v>
+      </c>
+      <c r="F67" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -5253,13 +5247,13 @@
         <v>109</v>
       </c>
       <c r="B68" t="s">
+        <v>214</v>
+      </c>
+      <c r="C68" t="s">
         <v>215</v>
       </c>
-      <c r="C68" t="s">
-        <v>218</v>
-      </c>
       <c r="D68" t="s">
-        <v>111</v>
+        <v>216</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -5267,16 +5261,13 @@
         <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D69" t="s">
-        <v>96</v>
-      </c>
-      <c r="F69" t="s">
-        <v>220</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -5284,13 +5275,16 @@
         <v>109</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>28</v>
       </c>
       <c r="C70" t="s">
+        <v>213</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" t="s">
         <v>219</v>
-      </c>
-      <c r="D70" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -5298,13 +5292,13 @@
         <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D71" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -5312,16 +5306,13 @@
         <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C72" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
-      </c>
-      <c r="F72" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -5332,13 +5323,13 @@
         <v>28</v>
       </c>
       <c r="C73" t="s">
-        <v>378</v>
+        <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>379</v>
+        <v>47</v>
       </c>
       <c r="F73" t="s">
-        <v>380</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -5349,10 +5340,13 @@
         <v>28</v>
       </c>
       <c r="C74" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D74" t="s">
-        <v>351</v>
+        <v>378</v>
+      </c>
+      <c r="F74" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -5363,10 +5357,10 @@
         <v>28</v>
       </c>
       <c r="C75" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -5377,13 +5371,10 @@
         <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D76" t="s">
-        <v>384</v>
-      </c>
-      <c r="F76" t="s">
-        <v>385</v>
+        <v>350</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -5391,13 +5382,16 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="D77" t="s">
-        <v>51</v>
+        <v>383</v>
+      </c>
+      <c r="F77" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -5405,10 +5399,10 @@
         <v>109</v>
       </c>
       <c r="B78" t="s">
+        <v>227</v>
+      </c>
+      <c r="C78" t="s">
         <v>228</v>
-      </c>
-      <c r="C78" t="s">
-        <v>231</v>
       </c>
       <c r="D78" t="s">
         <v>51</v>
@@ -5419,10 +5413,10 @@
         <v>109</v>
       </c>
       <c r="B79" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D79" t="s">
         <v>51</v>
@@ -5433,33 +5427,30 @@
         <v>109</v>
       </c>
       <c r="B80" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C80" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D80" t="s">
         <v>51</v>
       </c>
-      <c r="F80" t="s">
-        <v>236</v>
-      </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>109</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
         <v>51</v>
       </c>
       <c r="F81" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
@@ -5467,16 +5458,16 @@
         <v>109</v>
       </c>
       <c r="B82" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C82" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D82" t="s">
         <v>51</v>
       </c>
       <c r="F82" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -5484,27 +5475,30 @@
         <v>109</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C83" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D83" t="s">
         <v>51</v>
       </c>
+      <c r="F83" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C84" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
-        <v>242</v>
+        <v>51</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -5512,13 +5506,13 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C85" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -5526,13 +5520,13 @@
         <v>109</v>
       </c>
       <c r="B86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C86" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
-        <v>51</v>
+        <v>241</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -5540,10 +5534,10 @@
         <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
         <v>51</v>
@@ -5554,13 +5548,13 @@
         <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>349</v>
+        <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>360</v>
-      </c>
-      <c r="F88" t="s">
-        <v>361</v>
+        <v>245</v>
+      </c>
+      <c r="D88" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -5568,16 +5562,13 @@
         <v>109</v>
       </c>
       <c r="B89" t="s">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="C89" t="s">
-        <v>405</v>
-      </c>
-      <c r="D89" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="F89" t="s">
-        <v>409</v>
+        <v>360</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -5585,16 +5576,16 @@
         <v>109</v>
       </c>
       <c r="B90" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C90" t="s">
         <v>404</v>
       </c>
       <c r="D90" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -5602,30 +5593,33 @@
         <v>109</v>
       </c>
       <c r="B91" t="s">
+        <v>402</v>
+      </c>
+      <c r="C91" t="s">
         <v>403</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>406</v>
       </c>
-      <c r="D91" t="s">
+      <c r="F91" t="s">
         <v>408</v>
-      </c>
-      <c r="F91" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>402</v>
       </c>
       <c r="C92" t="s">
-        <v>319</v>
+        <v>405</v>
+      </c>
+      <c r="D92" t="s">
+        <v>407</v>
       </c>
       <c r="F92" t="s">
-        <v>271</v>
+        <v>408</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -5633,10 +5627,13 @@
         <v>104</v>
       </c>
       <c r="B93" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" t="s">
         <v>318</v>
       </c>
-      <c r="C93" t="s">
-        <v>320</v>
+      <c r="F93" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -5644,13 +5641,10 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C94" t="s">
-        <v>322</v>
-      </c>
-      <c r="D94" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
@@ -5658,13 +5652,13 @@
         <v>104</v>
       </c>
       <c r="B95" t="s">
+        <v>320</v>
+      </c>
+      <c r="C95" t="s">
         <v>321</v>
       </c>
-      <c r="C95" t="s">
-        <v>324</v>
-      </c>
       <c r="D95" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
@@ -5672,16 +5666,13 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C96" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D96" t="s">
-        <v>230</v>
-      </c>
-      <c r="F96" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -5689,12 +5680,15 @@
         <v>104</v>
       </c>
       <c r="B97" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C97" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D97" t="s">
+        <v>229</v>
+      </c>
+      <c r="F97" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5703,16 +5697,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C98" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D98" t="s">
-        <v>230</v>
-      </c>
-      <c r="F98" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -5720,13 +5711,16 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C99" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D99" t="s">
-        <v>332</v>
+        <v>229</v>
+      </c>
+      <c r="F99" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
@@ -5734,16 +5728,13 @@
         <v>104</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C100" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D100" t="s">
-        <v>230</v>
-      </c>
-      <c r="F100" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -5751,13 +5742,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C101" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D101" t="s">
-        <v>332</v>
+        <v>229</v>
+      </c>
+      <c r="F101" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -5765,16 +5759,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="C102" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D102" t="s">
-        <v>337</v>
-      </c>
-      <c r="F102" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -5782,13 +5773,16 @@
         <v>104</v>
       </c>
       <c r="B103" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D103" t="s">
-        <v>342</v>
+        <v>336</v>
+      </c>
+      <c r="F103" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -5799,10 +5793,10 @@
         <v>70</v>
       </c>
       <c r="C104" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D104" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -5813,10 +5807,10 @@
         <v>70</v>
       </c>
       <c r="C105" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D105" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -5824,16 +5818,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="C106" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D106" t="s">
-        <v>65</v>
-      </c>
-      <c r="F106" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -5841,13 +5832,16 @@
         <v>104</v>
       </c>
       <c r="B107" t="s">
-        <v>70</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D107" t="s">
-        <v>342</v>
+        <v>65</v>
+      </c>
+      <c r="F107" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -5858,15 +5852,30 @@
         <v>70</v>
       </c>
       <c r="C108" t="s">
+        <v>345</v>
+      </c>
+      <c r="D108" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>104</v>
+      </c>
+      <c r="B109" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" t="s">
+        <v>346</v>
+      </c>
+      <c r="D109" t="s">
         <v>347</v>
-      </c>
-      <c r="D108" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6012,13 +6021,13 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" t="s">
         <v>127</v>
       </c>
-      <c r="D7" t="s">
+      <c r="H7" t="s">
         <v>128</v>
-      </c>
-      <c r="H7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -6029,16 +6038,16 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>137</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>138</v>
-      </c>
-      <c r="H8" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -6049,16 +6058,16 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" t="s">
         <v>140</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>141</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>142</v>
-      </c>
-      <c r="H9" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -6069,13 +6078,13 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" t="s">
         <v>144</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>145</v>
-      </c>
-      <c r="G10" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -6086,16 +6095,16 @@
         <v>28</v>
       </c>
       <c r="C11" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" t="s">
         <v>175</v>
       </c>
-      <c r="D11" t="s">
+      <c r="G11" t="s">
         <v>176</v>
       </c>
-      <c r="G11" t="s">
-        <v>177</v>
-      </c>
       <c r="H11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -6106,13 +6115,13 @@
         <v>28</v>
       </c>
       <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" t="s">
         <v>182</v>
       </c>
-      <c r="D12" t="s">
-        <v>183</v>
-      </c>
       <c r="G12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -6123,16 +6132,16 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" t="s">
         <v>184</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>185</v>
-      </c>
-      <c r="H13" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -6140,16 +6149,16 @@
         <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" t="s">
+        <v>385</v>
+      </c>
+      <c r="H14" t="s">
         <v>207</v>
-      </c>
-      <c r="D14" t="s">
-        <v>386</v>
-      </c>
-      <c r="H14" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -6157,16 +6166,16 @@
         <v>109</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D15" t="s">
+        <v>386</v>
+      </c>
+      <c r="H15" t="s">
         <v>209</v>
-      </c>
-      <c r="D15" t="s">
-        <v>387</v>
-      </c>
-      <c r="H15" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -6174,13 +6183,13 @@
         <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6188,10 +6197,10 @@
         <v>109</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F17" t="s">
         <v>104</v>
@@ -6202,13 +6211,13 @@
         <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -6216,16 +6225,16 @@
         <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C19" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D19" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G19" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6233,16 +6242,16 @@
         <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C20" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D20" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G20" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -6250,16 +6259,16 @@
         <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D21" t="s">
         <v>51</v>
       </c>
       <c r="G21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -6267,16 +6276,16 @@
         <v>109</v>
       </c>
       <c r="B22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D22" t="s">
         <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6284,30 +6293,30 @@
         <v>109</v>
       </c>
       <c r="B23" t="s">
+        <v>471</v>
+      </c>
+      <c r="C23" t="s">
         <v>472</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>461</v>
+      </c>
+      <c r="G23" t="s">
         <v>473</v>
-      </c>
-      <c r="D23" t="s">
-        <v>462</v>
-      </c>
-      <c r="G23" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" t="s">
+        <v>241</v>
+      </c>
+      <c r="C24" t="s">
         <v>263</v>
       </c>
-      <c r="B24" t="s">
-        <v>242</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>264</v>
-      </c>
-      <c r="D24" t="s">
-        <v>265</v>
       </c>
       <c r="F24" t="s">
         <v>104</v>
@@ -6315,36 +6324,36 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" t="s">
         <v>266</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>267</v>
-      </c>
-      <c r="D25" t="s">
-        <v>268</v>
       </c>
       <c r="F25" t="s">
         <v>104</v>
       </c>
       <c r="H25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
